--- a/Listening/Questions.xlsx
+++ b/Listening/Questions.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="364">
   <si>
     <t>TPO 11</t>
   </si>
@@ -110,6 +110,15 @@
   </si>
   <si>
     <t>microClimate（Biology）</t>
+  </si>
+  <si>
+    <t>Prepare for a career in Journalism</t>
+  </si>
+  <si>
+    <t>Seafarers and Stars(Astronomy)</t>
+  </si>
+  <si>
+    <t>Passage Graves(archeology)</t>
   </si>
   <si>
     <t>Basic Comprehension Question</t>
@@ -372,6 +381,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>2+</t>
     </r>
     <r>
@@ -383,6 +398,22 @@
       </rPr>
       <t>1
 对于书架没人整理、有人quit的部分完全没听见</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1
+出现错误的和没听到的（实际出现的）一定不能选错误的
+后文提到，ones that students and professors here would want to read about等价于inform students and faculty of an issue</t>
     </r>
   </si>
   <si>
@@ -500,6 +531,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>1+</t>
     </r>
     <r>
@@ -619,6 +656,9 @@
 正确选项是因为：Of course with reptiles, it’s a balancing act</t>
   </si>
   <si>
+    <t>1 I barely recognize couples of paragraphs表明被改了很多。上文别夸出色，这里其实想说不是他的功劳，而不是惊讶</t>
+  </si>
+  <si>
     <t>Raw Points</t>
   </si>
   <si>
@@ -694,6 +734,21 @@
     <t>喘气</t>
   </si>
   <si>
+    <t>it’s been a while since we touched base.</t>
+  </si>
+  <si>
+    <t>距离我们开始已经有段时间了</t>
+  </si>
+  <si>
+    <t>seafarer</t>
+  </si>
+  <si>
+    <t>船员</t>
+  </si>
+  <si>
+    <t>archeology听成了architecture，不可饶恕！</t>
+  </si>
+  <si>
     <t>that's odd</t>
   </si>
   <si>
@@ -760,6 +815,32 @@
     <t>躲到凉快的地方</t>
   </si>
   <si>
+    <t>byline</t>
+  </si>
+  <si>
+    <t>署名</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">navigational </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.25"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>aids</t>
+    </r>
+  </si>
+  <si>
+    <t>Isle</t>
+  </si>
+  <si>
+    <t>岛</t>
+  </si>
+  <si>
     <t>payroll</t>
   </si>
   <si>
@@ -829,6 +910,21 @@
     <t>地洞</t>
   </si>
   <si>
+    <t>hooked</t>
+  </si>
+  <si>
+    <t>入迷了</t>
+  </si>
+  <si>
+    <t>Viking</t>
+  </si>
+  <si>
+    <t>北欧海盗</t>
+  </si>
+  <si>
+    <t>which don’t get me wrong is remarkable enough</t>
+  </si>
+  <si>
     <t>retrieved</t>
   </si>
   <si>
@@ -921,6 +1017,41 @@
     <t>大量的</t>
   </si>
   <si>
+    <t>Sounds like you’ve got a real knack for this.</t>
+  </si>
+  <si>
+    <t>听起来你找到了突破口</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Long before the development of ummm </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>advanced</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> navigational tools...</t>
+    </r>
+  </si>
+  <si>
+    <t>bronze</t>
+  </si>
+  <si>
+    <t>青铜</t>
+  </si>
+  <si>
     <t>a month behind the bill</t>
   </si>
   <si>
@@ -1053,6 +1184,24 @@
     <t>外出觅食</t>
   </si>
   <si>
+    <t>Supreme Court</t>
+  </si>
+  <si>
+    <t>高级法院</t>
+  </si>
+  <si>
+    <t>islander</t>
+  </si>
+  <si>
+    <t>岛上居民</t>
+  </si>
+  <si>
+    <t>tombs</t>
+  </si>
+  <si>
+    <t>坟墓</t>
+  </si>
+  <si>
     <t>my tuitions due soon</t>
   </si>
   <si>
@@ -1140,6 +1289,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>But the ease wi</t>
     </r>
     <r>
@@ -1165,6 +1320,24 @@
     <t>out foraging for food</t>
   </si>
   <si>
+    <t>pre-law class</t>
+  </si>
+  <si>
+    <t>法律预备课程</t>
+  </si>
+  <si>
+    <t>partition</t>
+  </si>
+  <si>
+    <t>划分</t>
+  </si>
+  <si>
+    <t>enclose</t>
+  </si>
+  <si>
+    <t>裹在内部</t>
+  </si>
+  <si>
     <t>count on it</t>
   </si>
   <si>
@@ -1239,6 +1412,34 @@
     <t>流汗</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">much more </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">symmetrically </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>than it could farther away the equator</t>
+    </r>
+  </si>
+  <si>
+    <t>overlapping</t>
+  </si>
+  <si>
+    <t>叠在一起的</t>
+  </si>
+  <si>
     <t>secularization</t>
   </si>
   <si>
@@ -1319,6 +1520,76 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">it was easier to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>discern the order</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> in the sky </t>
+    </r>
+  </si>
+  <si>
+    <t>识别</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">with chambers that were flooded with sunlight on certain special days of the year, which must have seemed </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">miraculous </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">and inspired a good deal of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">religious </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>wonder</t>
+    </r>
+  </si>
+  <si>
+    <t>不可思议的</t>
+  </si>
+  <si>
+    <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
@@ -1366,6 +1637,35 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve"> And they realized that you had to know the stars </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>in order to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> navigate</t>
+    </r>
+  </si>
+  <si>
+    <t>chanting</t>
+  </si>
+  <si>
+    <t>念经</t>
+  </si>
+  <si>
+    <r>
       <rPr>
         <b/>
         <sz val="11"/>
@@ -1426,6 +1726,35 @@
     <t>流星</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">When you </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.35"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>wanted</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> a star expert, you asked for a navigator.</t>
+    </r>
+  </si>
+  <si>
+    <t>bouncing off</t>
+  </si>
+  <si>
+    <t>碰撞</t>
+  </si>
+  <si>
     <t>clergy</t>
   </si>
   <si>
@@ -1444,6 +1773,18 @@
     <t>陨星</t>
   </si>
   <si>
+    <t>constellations</t>
+  </si>
+  <si>
+    <t>星座</t>
+  </si>
+  <si>
+    <t>intriguing</t>
+  </si>
+  <si>
+    <t>令人费解的</t>
+  </si>
+  <si>
     <t>vernacular</t>
   </si>
   <si>
@@ -1453,6 +1794,18 @@
     <t>He’s very conscious of</t>
   </si>
   <si>
+    <t>directly</t>
+  </si>
+  <si>
+    <t>dgrectly</t>
+  </si>
+  <si>
+    <t>standing waves</t>
+  </si>
+  <si>
+    <t>驻波</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1488,6 +1841,12 @@
     <t>某种程度上</t>
   </si>
   <si>
+    <t>deafening</t>
+  </si>
+  <si>
+    <t>震耳欲聋</t>
+  </si>
+  <si>
     <t>satire</t>
   </si>
   <si>
@@ -1523,6 +1882,12 @@
     </r>
   </si>
   <si>
+    <t>acoustics</t>
+  </si>
+  <si>
+    <t>音响效果</t>
+  </si>
+  <si>
     <t>imprisonment</t>
   </si>
   <si>
@@ -1535,6 +1900,12 @@
     <t>虚构的</t>
   </si>
   <si>
+    <t>engender</t>
+  </si>
+  <si>
+    <t>产生</t>
+  </si>
+  <si>
     <t>persecution</t>
   </si>
   <si>
@@ -1547,6 +1918,12 @@
     <t>拼凑</t>
   </si>
   <si>
+    <t>awe</t>
+  </si>
+  <si>
+    <t>敬畏</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1589,40 +1966,119 @@
     <t>冒着被监禁或被迫害的风险去写作。</t>
   </si>
   <si>
+    <t>worshiper</t>
+  </si>
+  <si>
+    <t>礼拜者</t>
+  </si>
+  <si>
     <t>resurrected</t>
   </si>
   <si>
     <t>复兴的</t>
   </si>
   <si>
+    <t>resonance</t>
+  </si>
+  <si>
+    <t>共振</t>
+  </si>
+  <si>
     <t>not to say</t>
   </si>
   <si>
     <t>甚至是</t>
   </si>
   <si>
+    <t>ring out</t>
+  </si>
+  <si>
+    <t>发出</t>
+  </si>
+  <si>
     <t>melodramatic</t>
   </si>
   <si>
     <t>情节性的</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">we’re mysteriously </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>agitated</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> by it</t>
+    </r>
+  </si>
+  <si>
+    <t>感到烦躁</t>
+  </si>
+  <si>
     <t>confined</t>
   </si>
   <si>
     <t>局限于</t>
   </si>
   <si>
+    <t>dizziness</t>
+  </si>
+  <si>
+    <t>眩晕</t>
+  </si>
+  <si>
     <t>any more than</t>
   </si>
   <si>
     <t>不至于</t>
   </si>
   <si>
+    <t>that sort of thing you see</t>
+  </si>
+  <si>
     <t>major divide</t>
   </si>
   <si>
     <t>格局划分</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">certainly </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>with regard to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> astronomical or calendar function that seems pretty obvious</t>
+    </r>
+  </si>
+  <si>
+    <t>不必赘述</t>
   </si>
   <si>
     <t>cadence</t>
@@ -1727,7 +2183,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1752,6 +2208,12 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1912,7 +2374,19 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0" tint="-0.25"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFFC000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.35"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -2246,10 +2720,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2258,34 +2732,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2297,98 +2768,101 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2439,6 +2913,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2790,8 +3270,8 @@
   <sheetPr/>
   <dimension ref="A1:AQ46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="AJ13" sqref="AJ13"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="AO36" sqref="AO36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -2825,13 +3305,19 @@
     <col min="27" max="27" width="26.5092592592593" style="1" hidden="1" customWidth="1"/>
     <col min="28" max="28" width="19.8333333333333" style="1" hidden="1" customWidth="1"/>
     <col min="29" max="29" width="19.6851851851852" style="1" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="22.537037037037" style="4" customWidth="1"/>
-    <col min="31" max="31" width="15.8703703703704" style="4" customWidth="1"/>
-    <col min="32" max="32" width="26.5" style="4" customWidth="1"/>
-    <col min="33" max="33" width="20.787037037037" style="4" customWidth="1"/>
+    <col min="30" max="30" width="22.537037037037" style="1" customWidth="1"/>
+    <col min="31" max="31" width="15.8703703703704" style="1" customWidth="1"/>
+    <col min="32" max="32" width="26.5" style="1" customWidth="1"/>
+    <col min="33" max="33" width="20.787037037037" style="1" customWidth="1"/>
     <col min="34" max="34" width="31.4259259259259" style="2" customWidth="1"/>
     <col min="35" max="35" width="21.2685185185185" style="2" customWidth="1"/>
-    <col min="36" max="16384" width="9" style="2"/>
+    <col min="36" max="36" width="16.037037037037" style="4" customWidth="1"/>
+    <col min="37" max="37" width="19.0462962962963" style="4" customWidth="1"/>
+    <col min="38" max="38" width="14.1203703703704" style="4" customWidth="1"/>
+    <col min="39" max="39" width="16.1944444444444" style="4" customWidth="1"/>
+    <col min="40" max="40" width="21.5833333333333" style="4" customWidth="1"/>
+    <col min="41" max="41" width="10.4722222222222" style="4" customWidth="1"/>
+    <col min="42" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:41">
@@ -2878,12 +3364,12 @@
       <c r="AG1" s="12"/>
       <c r="AH1" s="11"/>
       <c r="AI1" s="11"/>
-      <c r="AJ1" s="11"/>
-      <c r="AK1" s="11"/>
-      <c r="AL1" s="11"/>
-      <c r="AM1" s="11"/>
-      <c r="AN1" s="11"/>
-      <c r="AO1" s="11"/>
+      <c r="AJ1" s="12"/>
+      <c r="AK1" s="12"/>
+      <c r="AL1" s="12"/>
+      <c r="AM1" s="12"/>
+      <c r="AN1" s="12"/>
+      <c r="AO1" s="12"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="31.2" spans="1:41">
       <c r="A2" s="7"/>
@@ -2963,19 +3449,25 @@
         <v>24</v>
       </c>
       <c r="AI2" s="12"/>
-      <c r="AJ2" s="12"/>
+      <c r="AJ2" s="12" t="s">
+        <v>25</v>
+      </c>
       <c r="AK2" s="12"/>
-      <c r="AL2" s="12"/>
+      <c r="AL2" s="12" t="s">
+        <v>26</v>
+      </c>
       <c r="AM2" s="12"/>
-      <c r="AN2" s="12"/>
+      <c r="AN2" s="12" t="s">
+        <v>27</v>
+      </c>
       <c r="AO2" s="12"/>
     </row>
     <row r="3" ht="59" customHeight="1" spans="1:41">
       <c r="A3" s="9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6">
@@ -2993,7 +3485,7 @@
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="13" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K3" s="5">
         <v>1</v>
@@ -3001,7 +3493,7 @@
       <c r="L3" s="12"/>
       <c r="M3" s="12"/>
       <c r="N3" s="14" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="O3" s="12"/>
       <c r="P3" s="11">
@@ -3040,17 +3532,23 @@
         <v>1</v>
       </c>
       <c r="AI3" s="11"/>
-      <c r="AJ3" s="11"/>
-      <c r="AK3" s="11"/>
-      <c r="AL3" s="11"/>
-      <c r="AM3" s="11"/>
-      <c r="AN3" s="11"/>
-      <c r="AO3" s="11"/>
+      <c r="AJ3" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK3" s="12"/>
+      <c r="AL3" s="12">
+        <v>1</v>
+      </c>
+      <c r="AM3" s="12"/>
+      <c r="AN3" s="12">
+        <v>1</v>
+      </c>
+      <c r="AO3" s="12"/>
     </row>
     <row r="4" ht="33" customHeight="1" spans="1:43">
       <c r="A4" s="9"/>
       <c r="B4" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C4" s="6">
         <v>1</v>
@@ -3097,32 +3595,32 @@
       <c r="AG4" s="12"/>
       <c r="AH4" s="11"/>
       <c r="AI4" s="11"/>
-      <c r="AJ4" s="11"/>
-      <c r="AK4" s="11"/>
-      <c r="AL4" s="11"/>
-      <c r="AM4" s="11"/>
-      <c r="AN4" s="11"/>
-      <c r="AO4" s="11"/>
+      <c r="AJ4" s="12"/>
+      <c r="AK4" s="12"/>
+      <c r="AL4" s="12"/>
+      <c r="AM4" s="12"/>
+      <c r="AN4" s="12"/>
+      <c r="AO4" s="12"/>
       <c r="AP4" s="11"/>
       <c r="AQ4" s="11"/>
     </row>
     <row r="5" ht="78" spans="1:43">
       <c r="A5" s="9"/>
       <c r="B5" s="5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="8" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F5" s="6">
         <v>1</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H5" s="6">
         <v>1</v>
@@ -3131,7 +3629,7 @@
         <v>3</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K5" s="5">
         <v>2</v>
@@ -3141,11 +3639,11 @@
       </c>
       <c r="M5" s="12"/>
       <c r="N5" s="12" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="O5" s="12"/>
       <c r="P5" s="12" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="Q5" s="12"/>
       <c r="R5" s="12">
@@ -3161,7 +3659,7 @@
       </c>
       <c r="W5" s="12"/>
       <c r="X5" s="12" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Y5" s="12"/>
       <c r="Z5" s="12">
@@ -3169,11 +3667,11 @@
       </c>
       <c r="AA5" s="12"/>
       <c r="AB5" s="12" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AC5" s="12"/>
       <c r="AD5" s="12" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AE5" s="12"/>
       <c r="AF5" s="12">
@@ -3184,21 +3682,27 @@
         <v>3</v>
       </c>
       <c r="AI5" s="11"/>
-      <c r="AJ5" s="11"/>
-      <c r="AK5" s="11"/>
-      <c r="AL5" s="11"/>
-      <c r="AM5" s="11"/>
-      <c r="AN5" s="11"/>
-      <c r="AO5" s="11"/>
+      <c r="AJ5" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK5" s="12"/>
+      <c r="AL5" s="12">
+        <v>3</v>
+      </c>
+      <c r="AM5" s="12"/>
+      <c r="AN5" s="12">
+        <v>2</v>
+      </c>
+      <c r="AO5" s="12"/>
       <c r="AP5" s="11"/>
       <c r="AQ5" s="11"/>
     </row>
     <row r="6" ht="78" spans="1:43">
       <c r="A6" s="9" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C6" s="6">
         <v>2</v>
@@ -3210,10 +3714,10 @@
         <v>2</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H6" s="6">
         <v>3</v>
@@ -3228,7 +3732,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
       <c r="N6" s="14" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="O6" s="12"/>
       <c r="P6" s="11">
@@ -3244,7 +3748,7 @@
       </c>
       <c r="U6" s="12"/>
       <c r="V6" s="12" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="W6" s="12"/>
       <c r="X6" s="12"/>
@@ -3262,26 +3766,30 @@
       </c>
       <c r="AE6" s="12"/>
       <c r="AF6" s="12" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AG6" s="12"/>
       <c r="AH6" s="14" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="AI6" s="11"/>
-      <c r="AJ6" s="11"/>
-      <c r="AK6" s="11"/>
-      <c r="AL6" s="11"/>
-      <c r="AM6" s="11"/>
-      <c r="AN6" s="11"/>
-      <c r="AO6" s="11"/>
+      <c r="AJ6" s="12"/>
+      <c r="AK6" s="12"/>
+      <c r="AL6" s="12">
+        <v>1</v>
+      </c>
+      <c r="AM6" s="12"/>
+      <c r="AN6" s="12">
+        <v>2</v>
+      </c>
+      <c r="AO6" s="12"/>
       <c r="AP6" s="11"/>
       <c r="AQ6" s="11"/>
     </row>
     <row r="7" ht="109.2" spans="1:43">
       <c r="A7" s="9"/>
       <c r="B7" s="7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C7" s="6">
         <v>1</v>
@@ -3295,7 +3803,7 @@
         <v>1</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="12"/>
@@ -3319,7 +3827,7 @@
       <c r="X7" s="12"/>
       <c r="Y7" s="12"/>
       <c r="Z7" s="14" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="AA7" s="12"/>
       <c r="AB7" s="12"/>
@@ -3330,21 +3838,21 @@
       <c r="AG7" s="12"/>
       <c r="AH7" s="11"/>
       <c r="AI7" s="11"/>
-      <c r="AJ7" s="11"/>
-      <c r="AK7" s="11"/>
-      <c r="AL7" s="11"/>
-      <c r="AM7" s="11"/>
-      <c r="AN7" s="11"/>
-      <c r="AO7" s="11"/>
+      <c r="AJ7" s="12"/>
+      <c r="AK7" s="12"/>
+      <c r="AL7" s="12"/>
+      <c r="AM7" s="12"/>
+      <c r="AN7" s="12"/>
+      <c r="AO7" s="12"/>
       <c r="AP7" s="11"/>
       <c r="AQ7" s="11"/>
     </row>
     <row r="8" ht="31.2" spans="1:43">
       <c r="A8" s="9" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -3356,7 +3864,7 @@
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
       <c r="L8" s="12" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="M8" s="12"/>
       <c r="N8" s="12"/>
@@ -3381,19 +3889,19 @@
       <c r="AG8" s="12"/>
       <c r="AH8" s="11"/>
       <c r="AI8" s="11"/>
-      <c r="AJ8" s="11"/>
-      <c r="AK8" s="11"/>
-      <c r="AL8" s="11"/>
-      <c r="AM8" s="11"/>
-      <c r="AN8" s="11"/>
-      <c r="AO8" s="11"/>
+      <c r="AJ8" s="12"/>
+      <c r="AK8" s="12"/>
+      <c r="AL8" s="12"/>
+      <c r="AM8" s="12"/>
+      <c r="AN8" s="12"/>
+      <c r="AO8" s="12"/>
       <c r="AP8" s="11"/>
       <c r="AQ8" s="11"/>
     </row>
     <row r="9" ht="31.2" spans="1:43">
       <c r="A9" s="9"/>
       <c r="B9" s="7" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -3432,19 +3940,19 @@
       <c r="AG9" s="12"/>
       <c r="AH9" s="11"/>
       <c r="AI9" s="11"/>
-      <c r="AJ9" s="11"/>
-      <c r="AK9" s="11"/>
-      <c r="AL9" s="11"/>
-      <c r="AM9" s="11"/>
-      <c r="AN9" s="11"/>
-      <c r="AO9" s="11"/>
+      <c r="AJ9" s="12"/>
+      <c r="AK9" s="12"/>
+      <c r="AL9" s="12"/>
+      <c r="AM9" s="12"/>
+      <c r="AN9" s="12"/>
+      <c r="AO9" s="12"/>
       <c r="AP9" s="11"/>
       <c r="AQ9" s="11"/>
     </row>
     <row r="10" ht="75" customHeight="1" spans="1:43">
       <c r="A10" s="9"/>
       <c r="B10" s="5" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C10" s="6">
         <v>1</v>
@@ -3460,17 +3968,17 @@
       </c>
       <c r="I10" s="5"/>
       <c r="J10" s="13" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K10" s="13" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="L10" s="12">
         <v>1</v>
       </c>
       <c r="M10" s="12"/>
       <c r="N10" s="12" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="O10" s="12"/>
       <c r="P10" s="11"/>
@@ -3496,21 +4004,27 @@
       <c r="AF10" s="12"/>
       <c r="AG10" s="12"/>
       <c r="AH10" s="14" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="AI10" s="16"/>
-      <c r="AJ10" s="11"/>
-      <c r="AK10" s="11"/>
-      <c r="AL10" s="11"/>
-      <c r="AM10" s="11"/>
-      <c r="AN10" s="11"/>
-      <c r="AO10" s="11"/>
+      <c r="AJ10" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK10" s="14"/>
+      <c r="AL10" s="12">
+        <v>1</v>
+      </c>
+      <c r="AM10" s="12"/>
+      <c r="AN10" s="12">
+        <v>1</v>
+      </c>
+      <c r="AO10" s="12"/>
       <c r="AP10" s="11"/>
       <c r="AQ10" s="11"/>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="5" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="6">
@@ -3535,7 +4049,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="5" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="6">
@@ -3556,7 +4070,7 @@
       <c r="P12" s="11"/>
       <c r="Q12" s="11"/>
     </row>
-    <row r="13" ht="62.4" spans="1:35">
+    <row r="13" ht="62.4" spans="1:40">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="6"/>
@@ -3566,80 +4080,95 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="5" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="K13" s="5"/>
       <c r="L13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="W13" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="X13" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="Y13" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="Z13" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AA13" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="AB13" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AC13" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD13" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF13" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="AG13" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
+      </c>
+      <c r="AD13" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF13" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG13" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="AH13" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="AI13" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
+      </c>
+      <c r="AJ13" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK13" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL13" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AM13" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AN13" s="17" t="s">
+        <v>94</v>
       </c>
     </row>
-    <row r="14" ht="62.4" spans="1:35">
+    <row r="14" ht="62.4" spans="1:41">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="6"/>
@@ -3652,74 +4181,89 @@
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
       <c r="L14" s="7" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="M14" s="5"/>
       <c r="N14" s="7" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="X14" s="1" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="Z14" s="1" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="AA14" s="1" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="AB14" s="1" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="AC14" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AD14" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="AE14" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="AF14" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="AG14" s="4" t="s">
-        <v>104</v>
+        <v>110</v>
+      </c>
+      <c r="AD14" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE14" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF14" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AG14" s="1" t="s">
+        <v>114</v>
       </c>
       <c r="AH14" s="2" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="AI14" s="2" t="s">
-        <v>106</v>
+        <v>116</v>
+      </c>
+      <c r="AJ14" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="AK14" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="AL14" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="AN14" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AO14" s="4" t="s">
+        <v>121</v>
       </c>
     </row>
-    <row r="15" ht="31.2" spans="1:35">
+    <row r="15" ht="62.4" spans="1:40">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="6"/>
@@ -3732,79 +4276,94 @@
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
       <c r="L15" s="7" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="W15" s="1" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="X15" s="1" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="Y15" s="1" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="Z15" s="1" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="AA15" s="1" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="AB15" s="1" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="AC15" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AD15" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="AE15" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="AF15" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="AG15" s="4" t="s">
-        <v>127</v>
+        <v>138</v>
+      </c>
+      <c r="AD15" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE15" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF15" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG15" s="1" t="s">
+        <v>142</v>
       </c>
       <c r="AH15" s="2" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="AI15" s="2" t="s">
-        <v>129</v>
+        <v>144</v>
+      </c>
+      <c r="AJ15" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="AK15" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="AL15" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="AM15" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="AN15" s="4" t="s">
+        <v>149</v>
       </c>
     </row>
-    <row r="16" ht="46.8" spans="1:35">
+    <row r="16" ht="109.2" spans="1:41">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="6"/>
@@ -3817,73 +4376,88 @@
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
       <c r="L16" s="7" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="N16" s="7" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="O16" s="5" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="W16" s="1" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="X16" s="1" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="Y16" s="1" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="Z16" s="1" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="AA16" s="1" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="AB16" s="1" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="AC16" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="AD16" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="AF16" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="AG16" s="4" t="s">
-        <v>149</v>
+        <v>166</v>
+      </c>
+      <c r="AD16" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="AF16" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="AG16" s="1" t="s">
+        <v>169</v>
       </c>
       <c r="AH16" s="2" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="AI16" s="2" t="s">
-        <v>151</v>
+        <v>171</v>
+      </c>
+      <c r="AJ16" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="AK16" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="AL16" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="AN16" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="AO16" s="4" t="s">
+        <v>176</v>
       </c>
     </row>
-    <row r="17" ht="78" spans="1:35">
+    <row r="17" ht="78" spans="1:41">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="6"/>
@@ -3896,62 +4470,80 @@
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
       <c r="L17" s="7" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="M17" s="5"/>
       <c r="N17" s="7" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="X17" s="1" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="Z17" s="1" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="AA17" s="1" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="AB17" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AD17" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="AE17" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="AF17" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="AG17" s="4" t="s">
-        <v>167</v>
+        <v>188</v>
+      </c>
+      <c r="AD17" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE17" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="AF17" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG17" s="1" t="s">
+        <v>192</v>
       </c>
       <c r="AH17" s="2" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="AI17" s="2" t="s">
-        <v>169</v>
+        <v>194</v>
+      </c>
+      <c r="AJ17" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="AK17" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="AL17" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="AM17" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="AN17" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="AO17" s="4" t="s">
+        <v>200</v>
       </c>
     </row>
-    <row r="18" ht="62.4" spans="1:34">
+    <row r="18" ht="62.4" spans="1:41">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="6"/>
@@ -3964,56 +4556,74 @@
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
       <c r="L18" s="7" t="s">
-        <v>170</v>
+        <v>201</v>
       </c>
       <c r="M18" s="5"/>
       <c r="N18" s="7" t="s">
-        <v>171</v>
+        <v>202</v>
       </c>
       <c r="O18" s="5" t="s">
-        <v>172</v>
+        <v>203</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>173</v>
+        <v>204</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>174</v>
+        <v>205</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>175</v>
+        <v>206</v>
       </c>
       <c r="X18" s="1" t="s">
-        <v>176</v>
+        <v>207</v>
       </c>
       <c r="Y18" s="1" t="s">
-        <v>177</v>
+        <v>208</v>
       </c>
       <c r="Z18" s="1" t="s">
-        <v>178</v>
+        <v>209</v>
       </c>
       <c r="AA18" s="1" t="s">
-        <v>179</v>
+        <v>210</v>
       </c>
       <c r="AB18" s="1" t="s">
-        <v>180</v>
+        <v>211</v>
       </c>
       <c r="AC18" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="AD18" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="AE18" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="AF18" s="4" t="s">
-        <v>184</v>
+        <v>212</v>
+      </c>
+      <c r="AD18" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="AE18" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="AF18" s="1" t="s">
+        <v>215</v>
       </c>
       <c r="AH18" s="2" t="s">
-        <v>185</v>
+        <v>216</v>
+      </c>
+      <c r="AJ18" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="AK18" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="AL18" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="AM18" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="AN18" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="AO18" s="4" t="s">
+        <v>222</v>
       </c>
     </row>
-    <row r="19" ht="46.8" spans="1:35">
+    <row r="19" ht="78" spans="1:41">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="6"/>
@@ -4026,355 +4636,481 @@
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
       <c r="L19" s="7" t="s">
-        <v>186</v>
+        <v>223</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>187</v>
+        <v>224</v>
       </c>
       <c r="N19" s="7" t="s">
-        <v>188</v>
+        <v>225</v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>189</v>
+        <v>226</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>190</v>
+        <v>227</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>191</v>
+        <v>228</v>
       </c>
       <c r="V19" s="1" t="s">
-        <v>192</v>
+        <v>229</v>
       </c>
       <c r="Z19" s="1" t="s">
-        <v>193</v>
+        <v>230</v>
       </c>
       <c r="AA19" s="1" t="s">
-        <v>194</v>
+        <v>231</v>
       </c>
       <c r="AB19" s="1" t="s">
-        <v>195</v>
+        <v>232</v>
       </c>
       <c r="AC19" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="AD19" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="AF19" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="AG19" s="4" t="s">
-        <v>199</v>
+        <v>233</v>
+      </c>
+      <c r="AD19" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="AF19" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="AG19" s="1" t="s">
+        <v>236</v>
       </c>
       <c r="AH19" s="2" t="s">
-        <v>200</v>
+        <v>237</v>
       </c>
       <c r="AI19" s="2" t="s">
-        <v>201</v>
+        <v>238</v>
+      </c>
+      <c r="AL19" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="AN19" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="AO19" s="4" t="s">
+        <v>241</v>
       </c>
     </row>
-    <row r="20" ht="62.4" spans="14:35">
+    <row r="20" ht="140.4" spans="14:41">
       <c r="N20" s="1" t="s">
-        <v>202</v>
+        <v>242</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>203</v>
+        <v>243</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>204</v>
+        <v>244</v>
       </c>
       <c r="V20" s="1" t="s">
-        <v>205</v>
+        <v>245</v>
       </c>
       <c r="Z20" s="1" t="s">
-        <v>206</v>
+        <v>246</v>
       </c>
       <c r="AA20" s="1" t="s">
-        <v>207</v>
+        <v>247</v>
       </c>
       <c r="AB20" s="1" t="s">
-        <v>208</v>
+        <v>248</v>
       </c>
       <c r="AH20" s="2" t="s">
-        <v>209</v>
+        <v>249</v>
       </c>
       <c r="AI20" s="2" t="s">
-        <v>210</v>
+        <v>250</v>
+      </c>
+      <c r="AL20" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="AM20" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="AN20" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="AO20" s="4" t="s">
+        <v>254</v>
       </c>
     </row>
-    <row r="21" ht="46.8" spans="14:29">
+    <row r="21" ht="93.6" spans="14:41">
       <c r="N21" s="1" t="s">
-        <v>211</v>
+        <v>255</v>
       </c>
       <c r="T21" s="1" t="s">
-        <v>212</v>
+        <v>256</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>213</v>
+        <v>257</v>
       </c>
       <c r="Z21" s="1" t="s">
-        <v>214</v>
+        <v>258</v>
       </c>
       <c r="AA21" s="1" t="s">
-        <v>215</v>
+        <v>259</v>
       </c>
       <c r="AB21" s="1" t="s">
-        <v>216</v>
+        <v>260</v>
       </c>
       <c r="AC21" s="1" t="s">
-        <v>217</v>
+        <v>261</v>
+      </c>
+      <c r="AL21" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="AN21" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="AO21" s="4" t="s">
+        <v>264</v>
       </c>
     </row>
-    <row r="22" ht="63.6" spans="14:29">
+    <row r="22" ht="78" spans="14:41">
       <c r="N22" s="15" t="s">
-        <v>218</v>
+        <v>265</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>219</v>
+        <v>266</v>
       </c>
       <c r="T22" s="1" t="s">
-        <v>220</v>
+        <v>267</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>221</v>
+        <v>268</v>
       </c>
       <c r="Z22" s="1" t="s">
-        <v>222</v>
+        <v>269</v>
       </c>
       <c r="AA22" s="1" t="s">
-        <v>223</v>
+        <v>270</v>
       </c>
       <c r="AB22" s="1" t="s">
-        <v>224</v>
+        <v>271</v>
       </c>
       <c r="AC22" s="1" t="s">
-        <v>225</v>
+        <v>272</v>
+      </c>
+      <c r="AL22" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="AN22" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="AO22" s="4" t="s">
+        <v>275</v>
       </c>
     </row>
-    <row r="23" ht="31.2" spans="14:29">
+    <row r="23" ht="31.2" spans="14:41">
       <c r="N23" s="1" t="s">
-        <v>226</v>
+        <v>276</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>227</v>
+        <v>277</v>
       </c>
       <c r="Z23" s="1" t="s">
-        <v>228</v>
+        <v>278</v>
       </c>
       <c r="AA23" s="1" t="s">
-        <v>229</v>
+        <v>279</v>
       </c>
       <c r="AB23" s="1" t="s">
-        <v>230</v>
+        <v>280</v>
       </c>
       <c r="AC23" s="1" t="s">
-        <v>231</v>
+        <v>281</v>
+      </c>
+      <c r="AL23" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="AM23" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="AN23" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="AO23" s="4" t="s">
+        <v>285</v>
       </c>
     </row>
-    <row r="24" ht="31.2" spans="14:26">
+    <row r="24" ht="31.2" spans="14:41">
       <c r="N24" s="1" t="s">
-        <v>232</v>
+        <v>286</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>233</v>
+        <v>287</v>
       </c>
       <c r="Z24" s="1" t="s">
-        <v>234</v>
+        <v>288</v>
+      </c>
+      <c r="AL24" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="AM24" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="AN24" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="AO24" s="4" t="s">
+        <v>292</v>
       </c>
     </row>
-    <row r="25" spans="14:27">
+    <row r="25" spans="14:41">
       <c r="N25" s="1" t="s">
-        <v>235</v>
+        <v>293</v>
       </c>
       <c r="Z25" s="1" t="s">
-        <v>236</v>
+        <v>294</v>
       </c>
       <c r="AA25" s="1" t="s">
-        <v>237</v>
+        <v>295</v>
+      </c>
+      <c r="AN25" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="AO25" s="4" t="s">
+        <v>297</v>
       </c>
     </row>
-    <row r="26" ht="46.8" spans="14:26">
+    <row r="26" ht="46.8" spans="14:41">
       <c r="N26" s="1" t="s">
-        <v>238</v>
+        <v>298</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>239</v>
+        <v>299</v>
       </c>
       <c r="Z26" s="1" t="s">
-        <v>240</v>
+        <v>300</v>
+      </c>
+      <c r="AN26" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="AO26" s="4" t="s">
+        <v>302</v>
       </c>
     </row>
-    <row r="27" spans="14:27">
+    <row r="27" spans="14:41">
       <c r="N27" s="1" t="s">
-        <v>241</v>
+        <v>303</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>242</v>
+        <v>304</v>
       </c>
       <c r="Z27" s="1" t="s">
-        <v>243</v>
+        <v>305</v>
       </c>
       <c r="AA27" s="1" t="s">
-        <v>244</v>
+        <v>306</v>
+      </c>
+      <c r="AN27" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="AO27" s="4" t="s">
+        <v>308</v>
       </c>
     </row>
-    <row r="28" spans="14:27">
+    <row r="28" spans="14:41">
       <c r="N28" s="1" t="s">
-        <v>245</v>
+        <v>309</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>246</v>
+        <v>310</v>
       </c>
       <c r="Z28" s="1" t="s">
-        <v>247</v>
+        <v>311</v>
       </c>
       <c r="AA28" s="1" t="s">
-        <v>248</v>
+        <v>312</v>
+      </c>
+      <c r="AN28" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="AO28" s="4" t="s">
+        <v>314</v>
       </c>
     </row>
-    <row r="29" ht="78.6" spans="14:15">
+    <row r="29" ht="78.6" spans="14:41">
       <c r="N29" s="1" t="s">
-        <v>249</v>
+        <v>315</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>250</v>
+        <v>316</v>
+      </c>
+      <c r="AN29" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="AO29" s="4" t="s">
+        <v>318</v>
       </c>
     </row>
-    <row r="30" spans="14:15">
+    <row r="30" spans="14:41">
       <c r="N30" s="1" t="s">
-        <v>251</v>
+        <v>319</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>252</v>
+        <v>320</v>
+      </c>
+      <c r="AN30" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="AO30" s="4" t="s">
+        <v>322</v>
       </c>
     </row>
-    <row r="31" spans="14:15">
+    <row r="31" spans="14:41">
       <c r="N31" s="1" t="s">
-        <v>253</v>
+        <v>323</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>254</v>
+        <v>324</v>
+      </c>
+      <c r="AN31" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="AO31" s="4" t="s">
+        <v>326</v>
       </c>
     </row>
-    <row r="32" spans="14:15">
+    <row r="32" ht="31.2" spans="14:41">
       <c r="N32" s="2" t="s">
-        <v>255</v>
+        <v>327</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>256</v>
+        <v>328</v>
+      </c>
+      <c r="AN32" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="AO32" s="4" t="s">
+        <v>330</v>
       </c>
     </row>
-    <row r="33" spans="14:15">
+    <row r="33" spans="14:41">
       <c r="N33" s="1" t="s">
-        <v>257</v>
+        <v>331</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>258</v>
+        <v>332</v>
+      </c>
+      <c r="AN33" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="AO33" s="4" t="s">
+        <v>334</v>
       </c>
     </row>
-    <row r="34" spans="14:15">
+    <row r="34" ht="31.2" spans="14:40">
       <c r="N34" s="1" t="s">
-        <v>259</v>
+        <v>335</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>260</v>
+        <v>336</v>
+      </c>
+      <c r="AN34" s="4" t="s">
+        <v>337</v>
       </c>
     </row>
-    <row r="35" spans="14:15">
+    <row r="35" ht="78" spans="14:41">
       <c r="N35" s="1" t="s">
-        <v>261</v>
+        <v>338</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>262</v>
+        <v>339</v>
+      </c>
+      <c r="AN35" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="AO35" s="4" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="36" spans="14:15">
       <c r="N36" s="1" t="s">
-        <v>263</v>
+        <v>342</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>264</v>
+        <v>343</v>
       </c>
     </row>
     <row r="37" spans="14:15">
       <c r="N37" s="1" t="s">
-        <v>265</v>
+        <v>344</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>266</v>
+        <v>345</v>
       </c>
     </row>
     <row r="38" spans="14:15">
       <c r="N38" s="1" t="s">
-        <v>267</v>
+        <v>346</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>268</v>
+        <v>347</v>
       </c>
     </row>
     <row r="39" spans="14:15">
       <c r="N39" s="1" t="s">
-        <v>269</v>
+        <v>348</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>270</v>
+        <v>349</v>
       </c>
     </row>
     <row r="40" spans="14:15">
       <c r="N40" s="2" t="s">
-        <v>271</v>
+        <v>350</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>272</v>
+        <v>351</v>
       </c>
     </row>
     <row r="41" spans="14:15">
       <c r="N41" s="1" t="s">
-        <v>273</v>
+        <v>352</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>274</v>
+        <v>353</v>
       </c>
     </row>
     <row r="42" spans="14:15">
       <c r="N42" s="1" t="s">
-        <v>275</v>
+        <v>354</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>276</v>
+        <v>355</v>
       </c>
     </row>
     <row r="43" spans="14:15">
       <c r="N43" s="1" t="s">
-        <v>277</v>
+        <v>356</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>278</v>
+        <v>357</v>
       </c>
     </row>
     <row r="44" spans="14:15">
       <c r="N44" s="2" t="s">
-        <v>279</v>
+        <v>358</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>280</v>
+        <v>359</v>
       </c>
     </row>
     <row r="45" spans="14:15">
       <c r="N45" s="1" t="s">
-        <v>281</v>
+        <v>360</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>282</v>
+        <v>361</v>
       </c>
     </row>
     <row r="46" ht="46.8" spans="14:15">
       <c r="N46" s="1" t="s">
-        <v>283</v>
+        <v>362</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>284</v>
+        <v>363</v>
       </c>
     </row>
   </sheetData>

--- a/Listening/Questions.xlsx
+++ b/Listening/Questions.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28110" windowHeight="13140"/>
+    <workbookView windowWidth="22356" windowHeight="10020" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="总结" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="TPO11-14" sheetId="1" r:id="rId2"/>
+    <sheet name="TPO15-" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="445">
   <si>
     <t>问题</t>
   </si>
@@ -30,6 +30,9 @@
     <t>archeology听成了architecture，不可饶恕！</t>
   </si>
   <si>
+    <t>review时重听原文，确定没听懂的地方</t>
+  </si>
+  <si>
     <t>Isle</t>
   </si>
   <si>
@@ -37,6 +40,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">with chambers that were flooded with sunlight on certain special days of the year, which must have seemed </t>
     </r>
     <r>
@@ -87,6 +96,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">certainly </t>
     </r>
     <r>
@@ -128,6 +143,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">we’re mysteriously </t>
     </r>
     <r>
@@ -1135,9 +1156,6 @@
     <t>meteor</t>
   </si>
   <si>
-    <t>陨星</t>
-  </si>
-  <si>
     <t>poetry</t>
   </si>
   <si>
@@ -1289,6 +1307,9 @@
   </si>
   <si>
     <t>a drop in the bucket</t>
+  </si>
+  <si>
+    <t>九牛一毛</t>
   </si>
   <si>
     <t>systhesis</t>
@@ -2224,14 +2245,139 @@
     <t>Points</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">with chambers that were flooded with sunlight on certain special days of the year, which must have seemed </t>
+    <t>陨星</t>
+  </si>
+  <si>
+    <t>TPO 15</t>
+  </si>
+  <si>
+    <t>To be a reporter</t>
+  </si>
+  <si>
+    <t>Distraction（psy）</t>
+  </si>
+  <si>
+    <t>Geologic time period（geolo）</t>
+  </si>
+  <si>
+    <t>performance in biology exam</t>
+  </si>
+  <si>
+    <t>Palimsest(art history )</t>
+  </si>
+  <si>
+    <t>Hydrothermal vents(biology)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2 提到了两次cell division
+First time: micro-&gt;diagram-&gt;...-&gt;each stages of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>cell division;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+Second time: miss questions of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>cell divisions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> in exam</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 三次提到prayer book；
+本文重点在scribe没懂什么意思
+a book of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>prayers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> from the Middle Ages sold in an art auction for a lot of money;
+when a scribe used the parchment to make a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>prayer book</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">;
+a scholar came across the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>prayer book</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> in the library 
++</t>
     </r>
     <r>
       <rPr>
@@ -2240,16 +2386,17 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">miraculous </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">and inspired a good deal of </t>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
     </r>
     <r>
       <rPr>
@@ -2258,27 +2405,31 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">religious </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>wonder</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">we’re mysteriously </t>
+      <t>Archimedes’ writings were originally done on the papyrus scrolls.
+这个parchment是scribe的copy</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2
+忽略了challenge这个词；
+First, I’d like to talk about some discoveries that have challenged one of these fundamental assumptions about what you need in order to have a biological community.
+fundamental 都需要</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>photosynthesis</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2+</t>
     </r>
     <r>
       <rPr>
@@ -2287,27 +2438,17 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t>agitated</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> by it</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">certainly </t>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
     </r>
     <r>
       <rPr>
@@ -2316,17 +2457,609 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t>with regard to</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> astronomical or calendar function that seems pretty obvious</t>
-    </r>
+      <t xml:space="preserve">except for small porpotions not deciphered </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Well, we have</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.25"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>n’t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> had many students applying lately.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Holocene sediments contain </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>remnants</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> of more recent plants and animals.</t>
+    </r>
+  </si>
+  <si>
+    <t>残骸</t>
+  </si>
+  <si>
+    <t>Athletics places a heavy demand on your time,</t>
+  </si>
+  <si>
+    <t>manuscripts</t>
+  </si>
+  <si>
+    <t>手稿</t>
+  </si>
+  <si>
+    <t>about how all this requires photosynthesis</t>
+  </si>
+  <si>
+    <t>I’d stop by and see</t>
+  </si>
+  <si>
+    <t>顺路来看看</t>
+  </si>
+  <si>
+    <t>differentiate</t>
+  </si>
+  <si>
+    <t>区分</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> I say this because your work on the la</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>b pr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">oject was </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>exemplary</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>模范</t>
+  </si>
+  <si>
+    <t>scribe</t>
+  </si>
+  <si>
+    <t>抄写员</t>
+  </si>
+  <si>
+    <t>taken over</t>
+  </si>
+  <si>
+    <t>具有</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>but I guess you have</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.25"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>n’t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> looked at them yet.</t>
+    </r>
+  </si>
+  <si>
+    <t>speculation</t>
+  </si>
+  <si>
+    <t>预测</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">and interpreted each stage </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.35"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>of</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> cell division</t>
+    </r>
+  </si>
+  <si>
+    <t>monk</t>
+  </si>
+  <si>
+    <t>修道士</t>
+  </si>
+  <si>
+    <t>digestive organs</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Oh, Max, the new</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>s ed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>itor,</t>
+    </r>
+  </si>
+  <si>
+    <t>livestock</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I just sort of blanked out</t>
+  </si>
+  <si>
+    <t>大脑一时空白</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">So it wasn’t uncommon for the scribes or monks </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.35"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>who</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> produced the manuscripts</t>
+    </r>
+  </si>
+  <si>
+    <t>chemosynthesis</t>
+  </si>
+  <si>
+    <t>化学合成</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>so he has</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.25"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>n’t ma</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>de any decision about me yet</t>
+    </r>
+  </si>
+  <si>
+    <t>the phone pretty much rings off the hook</t>
+  </si>
+  <si>
+    <t>一直响个不停</t>
+  </si>
+  <si>
+    <t>monasteries</t>
+  </si>
+  <si>
+    <t>修道院</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>hav</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.25"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>en’t be</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>en in for a couple of days</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I studied six straight hours </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.35"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>the night</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> before the mid-term exam</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">They simply </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>erased</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> the ink off the parchment and wrote something new in its place</t>
+    </r>
+  </si>
+  <si>
+    <t>额rase</t>
+  </si>
+  <si>
+    <t>turn in</t>
+  </si>
+  <si>
+    <t>提交</t>
+  </si>
+  <si>
+    <t>shift gears a little</t>
+  </si>
+  <si>
+    <t>palimpsest</t>
+  </si>
+  <si>
+    <t>Yeah, they’re trying to come up with ways to get more students to take their introductory courses.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> it was customary to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>scrape away</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> the surface of the parchment with an </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>abrasive</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <t>刮掉；磨料</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>what about the other outline I sen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>t in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <t>decipher</t>
+  </si>
+  <si>
+    <t>破译；解读</t>
+  </si>
+  <si>
+    <t>some of those issues are already in what I proposed.</t>
+  </si>
+  <si>
+    <r>
+      <t>including what many n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ow t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>hink to be his most important work</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>I’ve lost my sha</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.35"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>re o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>f computer files</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>a book of</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> prayers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> from the Middle Ages sold in an art auction</t>
+    </r>
+  </si>
+  <si>
+    <t>Well, that’s not too surprising, is it?
+No, it’s not.</t>
+  </si>
+  <si>
+    <t>and beneath the surface writing of the manuscript laid</t>
+  </si>
+  <si>
+    <t>没理解</t>
+  </si>
+  <si>
+    <t>sensation</t>
+  </si>
+  <si>
+    <t>感觉</t>
+  </si>
+  <si>
+    <t>theorems</t>
+  </si>
+  <si>
+    <t>定理</t>
+  </si>
+  <si>
+    <t>So that means that now people weren’t really noticing the star field at all.</t>
+  </si>
+  <si>
+    <t>perceive but not notice</t>
+  </si>
+  <si>
+    <t>papyrus scrolls</t>
+  </si>
+  <si>
+    <t>纸莎草卷轴</t>
   </si>
 </sst>
 </file>
@@ -2518,18 +3251,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0" tint="-0.25"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
@@ -2543,6 +3264,18 @@
     <font>
       <sz val="11"/>
       <color theme="0" tint="-0.35"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -2747,7 +3480,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -2759,6 +3492,32 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -2879,7 +3638,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2909,7 +3668,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2927,28 +3686,28 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2957,10 +3716,10 @@
     <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3018,22 +3777,73 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3049,12 +3859,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3082,9 +3886,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -3093,6 +3903,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -3444,16 +4257,16 @@
   <sheetPr/>
   <dimension ref="A1:J119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G114" sqref="G114:G115"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
     <col min="2" max="2" width="25.25" customWidth="1"/>
-    <col min="4" max="4" width="19.625" style="18" customWidth="1"/>
-    <col min="5" max="5" width="28.875" style="18" customWidth="1"/>
+    <col min="4" max="4" width="19.6296296296296" style="33" customWidth="1"/>
+    <col min="5" max="5" width="28.8796296296296" style="33" customWidth="1"/>
     <col min="7" max="7" width="62.25" customWidth="1"/>
     <col min="8" max="8" width="27" customWidth="1"/>
   </cols>
@@ -3462,1160 +4275,1164 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="19"/>
+      <c r="E1" s="34"/>
       <c r="G1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" ht="49" customHeight="1" spans="1:8">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="D2" s="20" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="D2" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="E2" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" ht="33" spans="4:8">
-      <c r="D3" s="20" t="s">
+      <c r="H2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="20" t="s">
+    </row>
+    <row r="3" ht="31.2" spans="4:8">
+      <c r="D3" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="E3" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="G3" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="H3" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="4" ht="15" customHeight="1" spans="4:7">
-      <c r="D4" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="20" t="s">
+      <c r="D4" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="E4" s="35" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" ht="16.5" spans="4:8">
-      <c r="D5" s="20" t="s">
+      <c r="G4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="20" t="s">
+    </row>
+    <row r="5" ht="15.6" spans="4:8">
+      <c r="D5" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="E5" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="G5" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" ht="33" spans="4:7">
-      <c r="D6" s="20" t="s">
+      <c r="H5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="20" t="s">
+    </row>
+    <row r="6" ht="15.6" spans="4:7">
+      <c r="D6" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="E6" s="35" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" ht="33" spans="4:7">
-      <c r="D7" s="20" t="s">
+      <c r="G6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="20" t="s">
+    </row>
+    <row r="7" ht="31.2" spans="4:7">
+      <c r="D7" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="E7" s="35" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" ht="16.5" spans="4:7">
-      <c r="D8" s="20" t="s">
+      <c r="G7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="20" t="s">
+    </row>
+    <row r="8" ht="31.2" spans="4:7">
+      <c r="D8" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="E8" s="35" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" ht="33" spans="4:8">
-      <c r="D9" s="20" t="s">
+      <c r="G8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="20" t="s">
+    </row>
+    <row r="9" ht="15.6" spans="4:8">
+      <c r="D9" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="E9" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="G9" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="10" ht="33" spans="4:8">
-      <c r="D10" s="20" t="s">
+      <c r="H9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="20" t="s">
+    </row>
+    <row r="10" ht="31.2" spans="4:8">
+      <c r="D10" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="E10" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" ht="16.5" spans="4:7">
-      <c r="D11" s="20" t="s">
+      <c r="G10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" ht="15.6" spans="4:7">
+      <c r="D11" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="E11" s="35" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="12" ht="16.5" spans="4:8">
-      <c r="D12" s="20" t="s">
+      <c r="G11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="20" t="s">
+    </row>
+    <row r="12" ht="15.6" spans="4:8">
+      <c r="D12" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="E12" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="G12" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="13" ht="16.5" spans="4:8">
-      <c r="D13" s="20" t="s">
+      <c r="H12" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="20" t="s">
+    </row>
+    <row r="13" ht="15.6" spans="4:8">
+      <c r="D13" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="E13" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="G13" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="14" ht="16.5" spans="4:7">
-      <c r="D14" s="20" t="s">
+      <c r="H13" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="20" t="s">
+    </row>
+    <row r="14" ht="15.6" spans="4:7">
+      <c r="D14" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="E14" s="35" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="15" ht="16.5" spans="4:8">
-      <c r="D15" s="20" t="s">
+      <c r="G14" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="20" t="s">
+    </row>
+    <row r="15" ht="15.6" spans="4:8">
+      <c r="D15" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="E15" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="G15" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="16" ht="33" spans="4:7">
-      <c r="D16" s="20" t="s">
+      <c r="H15" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E16" s="20" t="s">
+    </row>
+    <row r="16" ht="31.2" spans="4:7">
+      <c r="D16" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="E16" s="35" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="17" ht="16.5" spans="4:8">
-      <c r="D17" s="20" t="s">
+      <c r="G16" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E17" s="20" t="s">
+    </row>
+    <row r="17" ht="15.6" spans="4:8">
+      <c r="D17" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="E17" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="G17" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="18" ht="16.5" spans="4:8">
-      <c r="D18" s="20" t="s">
+      <c r="H17" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E18" s="20" t="s">
+    </row>
+    <row r="18" ht="15.6" spans="4:8">
+      <c r="D18" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="E18" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="G18" s="3" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="19" ht="16.5" spans="4:7">
-      <c r="D19" s="20" t="s">
+      <c r="H18" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E19" s="20" t="s">
+    </row>
+    <row r="19" ht="15.6" spans="4:7">
+      <c r="D19" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="E19" s="35" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="20" ht="16.5" spans="4:7">
-      <c r="D20" s="20" t="s">
+      <c r="G19" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E20" s="20"/>
-      <c r="G20" s="1" t="s">
+    </row>
+    <row r="20" ht="15.6" spans="4:7">
+      <c r="D20" s="35" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="21" ht="16.5" spans="4:7">
-      <c r="D21" s="20" t="s">
+      <c r="E20" s="35"/>
+      <c r="G20" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E21" s="20" t="s">
+    </row>
+    <row r="21" ht="15.6" spans="4:7">
+      <c r="D21" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="E21" s="35" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="22" ht="33" spans="4:7">
-      <c r="D22" s="20" t="s">
+      <c r="G21" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E22" s="20" t="s">
+    </row>
+    <row r="22" ht="31.2" spans="4:7">
+      <c r="D22" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="E22" s="35" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="23" ht="16.5" spans="4:7">
-      <c r="D23" s="20" t="s">
+      <c r="G22" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E23" s="20" t="s">
+    </row>
+    <row r="23" ht="15.6" spans="4:7">
+      <c r="D23" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="E23" s="35" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="24" ht="18" spans="4:8">
-      <c r="D24" s="21" t="s">
+      <c r="G23" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E24" s="20" t="s">
+    </row>
+    <row r="24" ht="17.4" spans="4:8">
+      <c r="D24" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="E24" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="G24" s="3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="25" ht="16.5" spans="4:8">
-      <c r="D25" s="20" t="s">
+      <c r="H24" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E25" s="20" t="s">
+    </row>
+    <row r="25" ht="15.6" spans="4:8">
+      <c r="D25" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="E25" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="G25" s="3" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="26" ht="16.5" spans="4:7">
-      <c r="D26" s="20" t="s">
+      <c r="H25" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E26" s="20" t="s">
+    </row>
+    <row r="26" ht="15.6" spans="4:7">
+      <c r="D26" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="E26" s="35" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="27" ht="16.5" spans="4:7">
-      <c r="D27" s="20" t="s">
+      <c r="G26" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E27" s="20" t="s">
+    </row>
+    <row r="27" ht="15.6" spans="4:7">
+      <c r="D27" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="E27" s="35" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="28" ht="33" spans="4:7">
-      <c r="D28" s="20" t="s">
+      <c r="G27" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E28" s="20" t="s">
+    </row>
+    <row r="28" ht="31.2" spans="4:7">
+      <c r="D28" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="E28" s="35" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="29" ht="16.5" spans="4:7">
-      <c r="D29" s="20" t="s">
+      <c r="G28" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="E29" s="20" t="s">
+    </row>
+    <row r="29" ht="15.6" spans="4:7">
+      <c r="D29" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="E29" s="35" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="30" ht="16.5" spans="4:8">
-      <c r="D30" s="22" t="s">
+      <c r="G29" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E30" s="22" t="s">
+    </row>
+    <row r="30" ht="15.6" spans="4:8">
+      <c r="D30" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="E30" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="G30" s="3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="31" ht="16.5" spans="4:8">
-      <c r="D31" s="22" t="s">
+      <c r="H30" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="E31" s="22" t="s">
+    </row>
+    <row r="31" ht="15.6" spans="4:8">
+      <c r="D31" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="E31" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="G31" s="3" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="32" ht="16.5" spans="4:8">
-      <c r="D32" s="22" t="s">
+      <c r="H31" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="E32" s="22" t="s">
+    </row>
+    <row r="32" ht="15.6" spans="4:8">
+      <c r="D32" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="E32" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="G32" s="3" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="33" ht="16.5" spans="4:7">
-      <c r="D33" s="22" t="s">
+      <c r="H32" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E33" s="22" t="s">
+    </row>
+    <row r="33" ht="15.6" spans="4:7">
+      <c r="D33" s="39" t="s">
         <v>111</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="E33" s="39" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="34" ht="16.5" spans="4:7">
-      <c r="D34" s="22" t="s">
+      <c r="G33" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="E34" s="22" t="s">
+    </row>
+    <row r="34" ht="15.6" spans="4:7">
+      <c r="D34" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="E34" s="39" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="35" ht="16.5" spans="4:7">
-      <c r="D35" s="22" t="s">
+      <c r="G34" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="E35" s="22" t="s">
+    </row>
+    <row r="35" ht="15.6" spans="4:7">
+      <c r="D35" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="E35" s="39" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="36" ht="16.5" spans="4:7">
-      <c r="D36" s="20" t="s">
+      <c r="G35" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="E36" s="20" t="s">
+    </row>
+    <row r="36" ht="15.6" spans="4:7">
+      <c r="D36" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="E36" s="35" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="37" ht="33" spans="4:7">
-      <c r="D37" s="20" t="s">
+      <c r="G36" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="E37" s="20" t="s">
+    </row>
+    <row r="37" ht="31.2" spans="4:7">
+      <c r="D37" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="E37" s="35" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="38" ht="16.5" spans="4:7">
-      <c r="D38" s="20" t="s">
+      <c r="G37" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="E38" s="20" t="s">
+    </row>
+    <row r="38" ht="15.6" spans="4:7">
+      <c r="D38" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="E38" s="35" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="39" ht="16.5" spans="4:8">
-      <c r="D39" s="20" t="s">
+      <c r="G38" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="E39" s="20" t="s">
+    </row>
+    <row r="39" ht="15.6" spans="4:8">
+      <c r="D39" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="E39" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="H39" s="1" t="s">
+      <c r="G39" s="3" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="40" ht="16.5" spans="4:8">
-      <c r="D40" s="20" t="s">
+      <c r="H39" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="E40" s="20" t="s">
+    </row>
+    <row r="40" ht="15.6" spans="4:8">
+      <c r="D40" s="36" t="s">
         <v>133</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="E40" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="H40" s="1"/>
-    </row>
-    <row r="41" ht="16.5" spans="4:8">
-      <c r="D41" s="20" t="s">
+      <c r="G40" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="E41" s="20" t="s">
+      <c r="H40" s="3"/>
+    </row>
+    <row r="41" ht="15.6" spans="4:8">
+      <c r="D41" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="G41" s="1" t="s">
+      <c r="E41" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="H41" s="1" t="s">
+      <c r="G41" s="3" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="42" ht="16.5" spans="4:8">
-      <c r="D42" s="20" t="s">
+      <c r="H41" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="E42" s="20" t="s">
+    </row>
+    <row r="42" ht="31.2" spans="4:8">
+      <c r="D42" s="35" t="s">
         <v>140</v>
       </c>
-      <c r="G42" s="2" t="s">
+      <c r="E42" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="H42" s="2" t="s">
+      <c r="G42" s="1" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="43" ht="16.5" spans="4:8">
-      <c r="D43" s="20" t="s">
+      <c r="H42" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E43" s="20" t="s">
+    </row>
+    <row r="43" ht="15.6" spans="4:8">
+      <c r="D43" s="36" t="s">
         <v>144</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="E43" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="H43" s="1" t="s">
+      <c r="G43" s="3" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="44" ht="16.5" spans="4:7">
-      <c r="D44" s="20" t="s">
+      <c r="H43" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="E44" s="20" t="s">
+    </row>
+    <row r="44" ht="15.6" spans="4:7">
+      <c r="D44" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="G44" s="1" t="s">
+      <c r="E44" s="36" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="45" ht="16.5" spans="4:8">
-      <c r="D45" s="20" t="s">
+      <c r="G44" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="E45" s="20" t="s">
+    </row>
+    <row r="45" ht="15.6" spans="4:8">
+      <c r="D45" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="E45" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="H45" s="2"/>
-    </row>
-    <row r="46" ht="33" spans="4:8">
-      <c r="D46" s="20" t="s">
+      <c r="G45" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="E46" s="20" t="s">
+      <c r="H45" s="1"/>
+    </row>
+    <row r="46" ht="31.8" spans="4:8">
+      <c r="D46" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="G46" s="14" t="s">
+      <c r="E46" s="36" t="s">
         <v>155</v>
       </c>
-      <c r="H46" s="2" t="s">
+      <c r="G46" s="29" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="47" ht="33" spans="4:8">
-      <c r="D47" s="20" t="s">
+      <c r="H46" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E47" s="20" t="s">
+    </row>
+    <row r="47" ht="31.8" spans="4:8">
+      <c r="D47" s="35" t="s">
         <v>158</v>
       </c>
-      <c r="G47" s="1" t="s">
+      <c r="E47" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="H47" s="1" t="s">
+      <c r="G47" s="3" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="48" ht="16.5" spans="4:8">
-      <c r="D48" s="20" t="s">
+      <c r="H47" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="E48" s="20" t="s">
+    </row>
+    <row r="48" ht="15.6" spans="4:8">
+      <c r="D48" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="G48" s="6" t="s">
+      <c r="E48" s="36" t="s">
         <v>163</v>
       </c>
-      <c r="H48" s="4"/>
-    </row>
-    <row r="49" ht="16.5" spans="4:8">
-      <c r="D49" s="20" t="s">
+      <c r="G48" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="E49" s="20" t="s">
+      <c r="H48" s="2"/>
+    </row>
+    <row r="49" ht="15.6" spans="4:8">
+      <c r="D49" s="36" t="s">
         <v>165</v>
       </c>
-      <c r="G49" s="6" t="s">
+      <c r="E49" s="35" t="s">
         <v>166</v>
       </c>
-      <c r="H49" s="4"/>
-    </row>
-    <row r="50" ht="16.5" spans="4:5">
-      <c r="D50" s="20" t="s">
+      <c r="G49" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="E50" s="20" t="s">
+      <c r="H49" s="2"/>
+    </row>
+    <row r="50" ht="15.6" spans="4:5">
+      <c r="D50" s="35" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="51" ht="16.5" spans="4:5">
-      <c r="D51" s="20" t="s">
+      <c r="E50" s="35" t="s">
         <v>169</v>
       </c>
-      <c r="E51" s="20" t="s">
+    </row>
+    <row r="51" ht="15.6" spans="4:5">
+      <c r="D51" s="35" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="52" ht="16.5" spans="4:5">
-      <c r="D52" s="20" t="s">
+      <c r="E51" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="E52" s="20" t="s">
+    </row>
+    <row r="52" ht="15.6" spans="4:5">
+      <c r="D52" s="35" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="53" ht="16.5" spans="4:5">
-      <c r="D53" s="20" t="s">
+      <c r="E52" s="35" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="53" ht="15.6" spans="4:5">
+      <c r="D53" s="35" t="s">
         <v>173</v>
       </c>
-      <c r="E53" s="20" t="s">
+      <c r="E53" s="35" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="54" ht="16.5" spans="4:5">
-      <c r="D54" s="20" t="s">
+    <row r="54" ht="15.6" spans="4:5">
+      <c r="D54" s="35" t="s">
         <v>175</v>
       </c>
-      <c r="E54" s="20" t="s">
+      <c r="E54" s="35" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="55" ht="16.5" spans="4:5">
-      <c r="D55" s="20" t="s">
+    <row r="55" ht="15.6" spans="4:5">
+      <c r="D55" s="36" t="s">
         <v>177</v>
       </c>
-      <c r="E55" s="20" t="s">
+      <c r="E55" s="35" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="56" ht="16.5" spans="4:5">
-      <c r="D56" s="20" t="s">
+    <row r="56" ht="15.6" spans="4:5">
+      <c r="D56" s="36" t="s">
         <v>179</v>
       </c>
-      <c r="E56" s="20" t="s">
+      <c r="E56" s="35" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="57" ht="16.5" spans="4:5">
-      <c r="D57" s="20" t="s">
+    <row r="57" ht="15.6" spans="4:5">
+      <c r="D57" s="35" t="s">
         <v>181</v>
       </c>
-      <c r="E57" s="20" t="s">
+      <c r="E57" s="35" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="58" ht="16.5" spans="4:5">
-      <c r="D58" s="20" t="s">
+    <row r="58" ht="15.6" spans="4:5">
+      <c r="D58" s="35" t="s">
         <v>183</v>
       </c>
-      <c r="E58" s="20" t="s">
+      <c r="E58" s="35" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="59" ht="16.5" spans="4:5">
-      <c r="D59" s="20" t="s">
+    <row r="59" ht="15.6" spans="4:5">
+      <c r="D59" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="E59" s="20" t="s">
+      <c r="E59" s="35" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="60" ht="16.5" spans="4:5">
-      <c r="D60" s="20" t="s">
+    <row r="60" ht="15.6" spans="4:5">
+      <c r="D60" s="35" t="s">
         <v>187</v>
       </c>
-      <c r="E60" s="20" t="s">
+      <c r="E60" s="35" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="61" ht="16.5" spans="4:5">
-      <c r="D61" s="20" t="s">
+    <row r="61" ht="15.6" spans="4:5">
+      <c r="D61" s="35" t="s">
         <v>189</v>
       </c>
-      <c r="E61" s="20" t="s">
+      <c r="E61" s="35" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="62" ht="16.5" spans="4:8">
-      <c r="D62" s="20" t="s">
+    <row r="62" ht="15.6" spans="4:8">
+      <c r="D62" s="35" t="s">
         <v>191</v>
       </c>
-      <c r="E62" s="20" t="s">
+      <c r="E62" s="35" t="s">
         <v>192</v>
       </c>
-      <c r="H62" s="1"/>
-    </row>
-    <row r="63" ht="16.5" spans="4:5">
-      <c r="D63" s="20" t="s">
+      <c r="H62" s="3"/>
+    </row>
+    <row r="63" ht="15.6" spans="4:5">
+      <c r="D63" s="36" t="s">
         <v>193</v>
       </c>
-      <c r="E63" s="20" t="s">
+      <c r="E63" s="35" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="64" ht="16.5" spans="4:5">
-      <c r="D64" s="20" t="s">
+    <row r="64" ht="15.6" spans="4:5">
+      <c r="D64" s="35" t="s">
         <v>195</v>
       </c>
-      <c r="E64" s="20" t="s">
+      <c r="E64" s="35" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="65" ht="16.5" spans="4:5">
-      <c r="D65" s="20" t="s">
+    <row r="65" ht="15.6" spans="4:5">
+      <c r="D65" s="35" t="s">
         <v>197</v>
       </c>
-      <c r="E65" s="20" t="s">
+      <c r="E65" s="35" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="66" ht="16.5" spans="4:5">
-      <c r="D66" s="20" t="s">
+    <row r="66" ht="15.6" spans="4:5">
+      <c r="D66" s="35" t="s">
         <v>199</v>
       </c>
-      <c r="E66" s="20" t="s">
+      <c r="E66" s="35" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="67" ht="16.5" spans="4:5">
-      <c r="D67" s="20" t="s">
+    <row r="67" ht="15.6" spans="4:5">
+      <c r="D67" s="35" t="s">
         <v>201</v>
       </c>
-      <c r="E67" s="20" t="s">
+      <c r="E67" s="35" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="68" ht="16.5" spans="4:5">
-      <c r="D68" s="20" t="s">
+    <row r="68" ht="15.6" spans="4:5">
+      <c r="D68" s="35" t="s">
         <v>203</v>
       </c>
-      <c r="E68" s="20" t="s">
+      <c r="E68" s="35" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="69" ht="16.5" spans="4:5">
-      <c r="D69" s="20" t="s">
+    <row r="69" ht="15.6" spans="4:5">
+      <c r="D69" s="35" t="s">
         <v>205</v>
       </c>
-      <c r="E69" s="20" t="s">
+      <c r="E69" s="35" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="70" ht="16.5" spans="4:10">
-      <c r="D70" s="20" t="s">
+    <row r="70" ht="15.6" spans="4:10">
+      <c r="D70" s="36" t="s">
         <v>207</v>
       </c>
-      <c r="E70" s="20" t="s">
+      <c r="E70" s="35" t="s">
         <v>208</v>
       </c>
-      <c r="I70" s="1"/>
-      <c r="J70" s="1"/>
-    </row>
-    <row r="71" ht="16.5" spans="4:10">
-      <c r="D71" s="20" t="s">
+      <c r="I70" s="3"/>
+      <c r="J70" s="3"/>
+    </row>
+    <row r="71" ht="15.6" spans="4:10">
+      <c r="D71" s="35" t="s">
         <v>209</v>
       </c>
-      <c r="E71" s="20" t="s">
+      <c r="E71" s="35" t="s">
         <v>210</v>
       </c>
-      <c r="I71" s="1"/>
-      <c r="J71" s="1"/>
-    </row>
-    <row r="72" ht="16.5" spans="4:5">
-      <c r="D72" s="20" t="s">
+      <c r="I71" s="3"/>
+      <c r="J71" s="3"/>
+    </row>
+    <row r="72" ht="15.6" spans="4:5">
+      <c r="D72" s="35" t="s">
         <v>211</v>
       </c>
-      <c r="E72" s="20" t="s">
+      <c r="E72" s="35" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="73" ht="16.5" spans="4:5">
-      <c r="D73" s="20" t="s">
+    <row r="73" ht="15.6" spans="4:5">
+      <c r="D73" s="35" t="s">
         <v>213</v>
       </c>
-      <c r="E73" s="20" t="s">
+      <c r="E73" s="35" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="74" ht="16.5" spans="4:5">
-      <c r="D74" s="20" t="s">
+    <row r="74" ht="15.6" spans="4:5">
+      <c r="D74" s="36" t="s">
         <v>215</v>
       </c>
-      <c r="E74" s="20" t="s">
+      <c r="E74" s="35" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="75" ht="33" spans="4:5">
-      <c r="D75" s="20" t="s">
+    <row r="75" ht="31.2" spans="4:5">
+      <c r="D75" s="35" t="s">
         <v>217</v>
       </c>
-      <c r="E75" s="22" t="s">
+      <c r="E75" s="39" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="76" ht="16.5" spans="4:5">
-      <c r="D76" s="22" t="s">
+    <row r="76" ht="15.6" spans="4:5">
+      <c r="D76" s="38" t="s">
         <v>219</v>
       </c>
-      <c r="E76" s="22" t="s">
+      <c r="E76" s="39" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="77" ht="16.5" spans="4:5">
-      <c r="D77" s="22" t="s">
+    <row r="77" ht="15.6" spans="4:5">
+      <c r="D77" s="39" t="s">
         <v>221</v>
       </c>
-      <c r="E77" s="22" t="s">
+      <c r="E77" s="39" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="78" ht="16.5" spans="4:5">
-      <c r="D78" s="22" t="s">
+    <row r="78" ht="15.6" spans="4:5">
+      <c r="D78" s="39" t="s">
         <v>223</v>
       </c>
-      <c r="E78" s="22"/>
-    </row>
-    <row r="79" ht="16.5" spans="4:5">
-      <c r="D79" s="20" t="s">
+      <c r="E78" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="E79" s="20" t="s">
+    </row>
+    <row r="79" ht="15.6" spans="4:5">
+      <c r="D79" s="35" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="80" ht="16.5" spans="4:5">
-      <c r="D80" s="20" t="s">
+      <c r="E79" s="35" t="s">
         <v>226</v>
       </c>
-      <c r="E80" s="20" t="s">
+    </row>
+    <row r="80" ht="15.6" spans="4:5">
+      <c r="D80" s="35" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="81" ht="16.5" spans="4:5">
-      <c r="D81" s="20" t="s">
+      <c r="E80" s="35" t="s">
         <v>228</v>
       </c>
-      <c r="E81" s="20" t="s">
+    </row>
+    <row r="81" ht="15.6" spans="4:5">
+      <c r="D81" s="35" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="82" ht="16.5" spans="4:5">
-      <c r="D82" s="23" t="s">
+      <c r="E81" s="35" t="s">
         <v>230</v>
       </c>
-      <c r="E82" s="24" t="s">
+    </row>
+    <row r="82" ht="15.6" spans="4:5">
+      <c r="D82" s="40" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="83" ht="16.5" spans="4:5">
-      <c r="D83" s="23" t="s">
+      <c r="E82" s="41" t="s">
         <v>232</v>
       </c>
-      <c r="E83" s="24" t="s">
+    </row>
+    <row r="83" ht="15.6" spans="4:5">
+      <c r="D83" s="40" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="84" ht="16.5" spans="4:5">
-      <c r="D84" s="23" t="s">
+      <c r="E83" s="41" t="s">
         <v>234</v>
       </c>
-      <c r="E84" s="24" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="85" ht="16.5" spans="4:5">
-      <c r="D85" s="23" t="s">
+    </row>
+    <row r="84" ht="15.6" spans="4:5">
+      <c r="D84" s="40" t="s">
         <v>235</v>
       </c>
-      <c r="E85" s="24" t="s">
+      <c r="E84" s="41" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="85" ht="15.6" spans="4:5">
+      <c r="D85" s="40" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="86" ht="16.5" spans="4:5">
-      <c r="D86" s="23" t="s">
+      <c r="E85" s="41" t="s">
         <v>237</v>
       </c>
-      <c r="E86" s="24" t="s">
+    </row>
+    <row r="86" ht="15.6" spans="4:5">
+      <c r="D86" s="40" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="87" ht="16.5" spans="4:5">
-      <c r="D87" s="23" t="s">
+      <c r="E86" s="41" t="s">
         <v>239</v>
       </c>
-      <c r="E87" s="24" t="s">
+    </row>
+    <row r="87" ht="15.6" spans="4:5">
+      <c r="D87" s="40" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="88" ht="16.5" spans="4:5">
-      <c r="D88" s="23" t="s">
+      <c r="E87" s="41" t="s">
         <v>241</v>
       </c>
-      <c r="E88" s="24" t="s">
+    </row>
+    <row r="88" ht="15.6" spans="4:5">
+      <c r="D88" s="40" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="89" ht="33" spans="4:5">
-      <c r="D89" s="20" t="s">
+      <c r="E88" s="41" t="s">
         <v>243</v>
       </c>
-      <c r="E89" s="20" t="s">
+    </row>
+    <row r="89" ht="15.6" spans="4:5">
+      <c r="D89" s="35" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="90" ht="16.5" spans="4:5">
-      <c r="D90" s="20" t="s">
+      <c r="E89" s="35" t="s">
         <v>245</v>
       </c>
-      <c r="E90" s="22" t="s">
+    </row>
+    <row r="90" ht="15.6" spans="4:5">
+      <c r="D90" s="35" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="91" ht="16.5" spans="4:5">
-      <c r="D91" s="20" t="s">
+      <c r="E90" s="39" t="s">
         <v>247</v>
       </c>
-      <c r="E91" s="22" t="s">
+    </row>
+    <row r="91" ht="15.6" spans="4:5">
+      <c r="D91" s="35" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="92" ht="16.5" spans="4:5">
-      <c r="D92" s="20" t="s">
+      <c r="E91" s="39" t="s">
         <v>249</v>
       </c>
-      <c r="E92" s="22"/>
-    </row>
-    <row r="93" ht="16.5" spans="4:5">
-      <c r="D93" s="20" t="s">
+    </row>
+    <row r="92" ht="15.6" spans="4:5">
+      <c r="D92" s="35" t="s">
         <v>250</v>
       </c>
-      <c r="E93" s="22" t="s">
+      <c r="E92" s="39"/>
+    </row>
+    <row r="93" ht="15.6" spans="4:5">
+      <c r="D93" s="36" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="94" ht="16.5" spans="4:5">
-      <c r="D94" s="20" t="s">
+      <c r="E93" s="39" t="s">
         <v>252</v>
       </c>
-      <c r="E94" s="22" t="s">
+    </row>
+    <row r="94" ht="15.6" spans="4:5">
+      <c r="D94" s="36" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="95" ht="16.5" spans="4:5">
-      <c r="D95" s="20" t="s">
+      <c r="E94" s="39" t="s">
         <v>254</v>
       </c>
-      <c r="E95" s="22" t="s">
+    </row>
+    <row r="95" ht="15.6" spans="4:5">
+      <c r="D95" s="36" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="96" ht="16.5" spans="4:5">
-      <c r="D96" s="20" t="s">
+      <c r="E95" s="39" t="s">
         <v>256</v>
       </c>
-      <c r="E96" s="22" t="s">
+    </row>
+    <row r="96" ht="15.6" spans="4:5">
+      <c r="D96" s="36" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="97" ht="16.5" spans="4:5">
-      <c r="D97" s="20" t="s">
+      <c r="E96" s="39" t="s">
         <v>258</v>
       </c>
-      <c r="E97" s="22" t="s">
+    </row>
+    <row r="97" ht="15.6" spans="4:5">
+      <c r="D97" s="36" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="98" ht="16.5" spans="4:5">
-      <c r="D98" s="22" t="s">
+      <c r="E97" s="39" t="s">
         <v>260</v>
       </c>
-      <c r="E98" s="22" t="s">
+    </row>
+    <row r="98" ht="15.6" spans="4:5">
+      <c r="D98" s="39" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="99" ht="16.5" spans="4:5">
-      <c r="D99" s="20" t="s">
+      <c r="E98" s="39" t="s">
         <v>262</v>
       </c>
-      <c r="E99" s="22" t="s">
+    </row>
+    <row r="99" ht="15.6" spans="4:5">
+      <c r="D99" s="35" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="100" ht="16.5" spans="4:5">
-      <c r="D100" s="20" t="s">
+      <c r="E99" s="39" t="s">
         <v>264</v>
       </c>
-      <c r="E100" s="22" t="s">
+    </row>
+    <row r="100" ht="15.6" spans="4:5">
+      <c r="D100" s="36" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="101" ht="16.5" spans="4:5">
-      <c r="D101" s="20" t="s">
+      <c r="E100" s="39" t="s">
         <v>266</v>
       </c>
-      <c r="E101" s="22" t="s">
+    </row>
+    <row r="101" ht="15.6" spans="4:5">
+      <c r="D101" s="35" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="102" ht="16.5" spans="4:5">
-      <c r="D102" s="20" t="s">
+      <c r="E101" s="39" t="s">
         <v>268</v>
       </c>
-      <c r="E102" s="22" t="s">
+    </row>
+    <row r="102" ht="15.6" spans="4:5">
+      <c r="D102" s="35" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="103" ht="16.5" spans="4:5">
-      <c r="D103" s="20" t="s">
+      <c r="E102" s="39" t="s">
         <v>270</v>
       </c>
-      <c r="E103" s="22" t="s">
+    </row>
+    <row r="103" ht="15.6" spans="4:5">
+      <c r="D103" s="35" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="104" ht="16.5" spans="4:5">
-      <c r="D104" s="20" t="s">
+      <c r="E103" s="39" t="s">
         <v>272</v>
       </c>
-      <c r="E104" s="22" t="s">
+    </row>
+    <row r="104" ht="15.6" spans="4:5">
+      <c r="D104" s="35" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="105" ht="16.5" spans="4:5">
-      <c r="D105" s="20" t="s">
+      <c r="E104" s="39" t="s">
         <v>274</v>
       </c>
-      <c r="E105" s="22" t="s">
+    </row>
+    <row r="105" ht="15.6" spans="4:5">
+      <c r="D105" s="35" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="106" ht="16.5" spans="4:5">
-      <c r="D106" s="22" t="s">
+      <c r="E105" s="39" t="s">
         <v>276</v>
       </c>
-      <c r="E106" s="22" t="s">
+    </row>
+    <row r="106" ht="15.6" spans="4:5">
+      <c r="D106" s="39" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="107" ht="16.5" spans="4:5">
-      <c r="D107" s="20" t="s">
+      <c r="E106" s="39" t="s">
         <v>278</v>
       </c>
-      <c r="E107" s="22" t="s">
+    </row>
+    <row r="107" ht="15.6" spans="4:5">
+      <c r="D107" s="35" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="108" ht="16.5" spans="4:5">
-      <c r="D108" s="20" t="s">
+      <c r="E107" s="39" t="s">
         <v>280</v>
       </c>
-      <c r="E108" s="22" t="s">
+    </row>
+    <row r="108" ht="15.6" spans="4:5">
+      <c r="D108" s="35" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="109" ht="16.5" spans="4:5">
-      <c r="D109" s="20" t="s">
+      <c r="E108" s="39" t="s">
         <v>282</v>
       </c>
-      <c r="E109" s="22" t="s">
+    </row>
+    <row r="109" ht="15.6" spans="4:5">
+      <c r="D109" s="36" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="110" ht="16.5" spans="4:5">
-      <c r="D110" s="22" t="s">
+      <c r="E109" s="39" t="s">
         <v>284</v>
       </c>
-      <c r="E110" s="22" t="s">
+    </row>
+    <row r="110" ht="15.6" spans="4:5">
+      <c r="D110" s="39" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="111" ht="16.5" spans="4:5">
-      <c r="D111" s="20" t="s">
+      <c r="E110" s="39" t="s">
         <v>286</v>
       </c>
-      <c r="E111" s="22" t="s">
+    </row>
+    <row r="111" ht="15.6" spans="4:5">
+      <c r="D111" s="35" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="112" ht="16.5" spans="4:5">
-      <c r="D112" s="20" t="s">
+      <c r="E111" s="39" t="s">
         <v>288</v>
       </c>
-      <c r="E112" s="20" t="s">
+    </row>
+    <row r="112" ht="31.2" spans="4:5">
+      <c r="D112" s="35" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="113" ht="16.5" spans="4:5">
-      <c r="D113" s="23" t="s">
+      <c r="E112" s="35" t="s">
         <v>290</v>
       </c>
-      <c r="E113" s="24" t="s">
+    </row>
+    <row r="113" ht="15.6" spans="4:5">
+      <c r="D113" s="40" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="114" ht="16.5" spans="4:5">
-      <c r="D114" s="23" t="s">
+      <c r="E113" s="41" t="s">
         <v>292</v>
       </c>
-      <c r="E114" s="24"/>
-    </row>
-    <row r="115" ht="16.5" spans="4:5">
-      <c r="D115" s="23" t="s">
+    </row>
+    <row r="114" ht="15.6" spans="4:5">
+      <c r="D114" s="40" t="s">
         <v>293</v>
       </c>
-      <c r="E115" s="24" t="s">
+      <c r="E114" s="41"/>
+    </row>
+    <row r="115" ht="15.6" spans="4:5">
+      <c r="D115" s="40" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="116" ht="16.5" spans="4:5">
-      <c r="D116" s="23" t="s">
+      <c r="E115" s="41" t="s">
         <v>295</v>
       </c>
-      <c r="E116" s="24" t="s">
+    </row>
+    <row r="116" ht="15.6" spans="4:5">
+      <c r="D116" s="40" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="117" ht="16.5" spans="4:5">
-      <c r="D117" s="23" t="s">
+      <c r="E116" s="41" t="s">
         <v>297</v>
       </c>
-      <c r="E117" s="24" t="s">
+    </row>
+    <row r="117" ht="15.6" spans="4:5">
+      <c r="D117" s="42" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="118" ht="16.5" spans="4:4">
-      <c r="D118" s="24" t="s">
+      <c r="E117" s="41" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="119" ht="16.5" spans="4:4">
-      <c r="D119" s="24" t="s">
+    <row r="118" ht="15.6" spans="4:4">
+      <c r="D118" s="41" t="s">
         <v>300</v>
+      </c>
+    </row>
+    <row r="119" ht="15.6" spans="4:4">
+      <c r="D119" s="41" t="s">
+        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -4633,1847 +5450,1847 @@
   <sheetPr/>
   <dimension ref="A1:AQ46"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="G7" workbookViewId="0">
-      <selection activeCell="J13" sqref="I13:J13"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="15.6333333333333" style="2" customWidth="1"/>
-    <col min="2" max="2" width="52.8833333333333" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.6333333333333" style="3" customWidth="1"/>
-    <col min="4" max="4" width="23" style="3" customWidth="1"/>
-    <col min="5" max="5" width="26" style="3" customWidth="1"/>
-    <col min="6" max="6" width="33.775" style="3" customWidth="1"/>
-    <col min="7" max="7" width="27.3333333333333" style="3" customWidth="1"/>
-    <col min="8" max="8" width="15.425" style="3" customWidth="1"/>
-    <col min="9" max="9" width="19.2166666666667" style="2" customWidth="1"/>
-    <col min="10" max="10" width="24.7" style="2" customWidth="1"/>
-    <col min="11" max="11" width="18.6916666666667" style="2" customWidth="1"/>
-    <col min="12" max="12" width="15.9416666666667" style="1" customWidth="1"/>
-    <col min="13" max="13" width="11.2416666666667" style="2" customWidth="1"/>
-    <col min="14" max="14" width="23.9166666666667" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.8083333333333" style="2" customWidth="1"/>
-    <col min="16" max="16" width="24.575" style="2" customWidth="1"/>
-    <col min="17" max="17" width="9" style="2" customWidth="1"/>
-    <col min="18" max="18" width="16" style="1" customWidth="1"/>
-    <col min="19" max="19" width="9" style="1" customWidth="1"/>
-    <col min="20" max="20" width="22.8916666666667" style="1" customWidth="1"/>
-    <col min="21" max="21" width="17.3333333333333" style="1" customWidth="1"/>
-    <col min="22" max="22" width="20.3333333333333" style="1" customWidth="1"/>
-    <col min="23" max="23" width="9" style="1" customWidth="1"/>
-    <col min="24" max="24" width="25.7166666666667" style="1" customWidth="1"/>
-    <col min="25" max="25" width="17.4666666666667" style="1" customWidth="1"/>
-    <col min="26" max="26" width="22.5333333333333" style="1" customWidth="1"/>
-    <col min="27" max="27" width="26.5083333333333" style="1" customWidth="1"/>
-    <col min="28" max="28" width="19.8333333333333" style="1" customWidth="1"/>
-    <col min="29" max="29" width="19.6833333333333" style="1" customWidth="1"/>
-    <col min="30" max="30" width="22.5333333333333" style="1" customWidth="1"/>
-    <col min="31" max="31" width="15.8666666666667" style="1" customWidth="1"/>
-    <col min="32" max="32" width="26.5" style="1" customWidth="1"/>
-    <col min="33" max="33" width="20.7833333333333" style="1" customWidth="1"/>
-    <col min="34" max="34" width="31.425" style="2" customWidth="1"/>
-    <col min="35" max="35" width="21.2666666666667" style="2" customWidth="1"/>
-    <col min="36" max="36" width="16.0333333333333" style="1" customWidth="1"/>
-    <col min="37" max="37" width="19.05" style="1" customWidth="1"/>
-    <col min="38" max="38" width="14.1166666666667" style="1" customWidth="1"/>
-    <col min="39" max="39" width="16.1916666666667" style="1" customWidth="1"/>
-    <col min="40" max="40" width="21.5833333333333" style="1" customWidth="1"/>
-    <col min="41" max="41" width="10.475" style="1" customWidth="1"/>
-    <col min="42" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="15.6296296296296" style="1" customWidth="1"/>
+    <col min="2" max="2" width="52.8796296296296" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6296296296296" style="21" customWidth="1"/>
+    <col min="4" max="4" width="23" style="21" customWidth="1"/>
+    <col min="5" max="5" width="26" style="21" customWidth="1"/>
+    <col min="6" max="6" width="33.7777777777778" style="21" customWidth="1"/>
+    <col min="7" max="7" width="27.3333333333333" style="21" customWidth="1"/>
+    <col min="8" max="8" width="15.4259259259259" style="21" customWidth="1"/>
+    <col min="9" max="9" width="19.212962962963" style="1" customWidth="1"/>
+    <col min="10" max="10" width="24.7037037037037" style="1" customWidth="1"/>
+    <col min="11" max="11" width="18.6944444444444" style="1" customWidth="1"/>
+    <col min="12" max="12" width="15.9444444444444" style="3" customWidth="1"/>
+    <col min="13" max="13" width="11.2407407407407" style="1" customWidth="1"/>
+    <col min="14" max="14" width="23.9166666666667" style="3" customWidth="1"/>
+    <col min="15" max="15" width="12.8055555555556" style="1" customWidth="1"/>
+    <col min="16" max="16" width="24.5740740740741" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9" style="1" customWidth="1"/>
+    <col min="18" max="18" width="16" style="3" customWidth="1"/>
+    <col min="19" max="19" width="9" style="3" customWidth="1"/>
+    <col min="20" max="20" width="22.8888888888889" style="3" customWidth="1"/>
+    <col min="21" max="21" width="17.3333333333333" style="3" customWidth="1"/>
+    <col min="22" max="22" width="20.3333333333333" style="3" customWidth="1"/>
+    <col min="23" max="23" width="9" style="3" customWidth="1"/>
+    <col min="24" max="24" width="25.712962962963" style="3" customWidth="1"/>
+    <col min="25" max="25" width="17.462962962963" style="3" customWidth="1"/>
+    <col min="26" max="26" width="22.537037037037" style="3" customWidth="1"/>
+    <col min="27" max="27" width="26.5092592592593" style="3" customWidth="1"/>
+    <col min="28" max="28" width="19.8333333333333" style="3" customWidth="1"/>
+    <col min="29" max="29" width="19.6851851851852" style="3" customWidth="1"/>
+    <col min="30" max="30" width="22.537037037037" style="3" customWidth="1"/>
+    <col min="31" max="31" width="15.8703703703704" style="3" customWidth="1"/>
+    <col min="32" max="32" width="26.5" style="3" customWidth="1"/>
+    <col min="33" max="33" width="20.787037037037" style="3" customWidth="1"/>
+    <col min="34" max="34" width="31.4259259259259" style="1" customWidth="1"/>
+    <col min="35" max="35" width="21.2685185185185" style="1" customWidth="1"/>
+    <col min="36" max="36" width="16.037037037037" style="3" customWidth="1"/>
+    <col min="37" max="37" width="19.0462962962963" style="3" customWidth="1"/>
+    <col min="38" max="38" width="14.1203703703704" style="3" customWidth="1"/>
+    <col min="39" max="39" width="16.1944444444444" style="3" customWidth="1"/>
+    <col min="40" max="40" width="21.5833333333333" style="3" customWidth="1"/>
+    <col min="41" max="41" width="10.4722222222222" style="3" customWidth="1"/>
+    <col min="42" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:41">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="5" t="s">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="22" t="s">
+        <v>302</v>
+      </c>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="12"/>
+      <c r="X1" s="12"/>
+      <c r="Y1" s="12"/>
+      <c r="Z1" s="12"/>
+      <c r="AA1" s="12"/>
+      <c r="AB1" s="12"/>
+      <c r="AC1" s="12"/>
+      <c r="AD1" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="AE1" s="12"/>
+      <c r="AF1" s="12"/>
+      <c r="AG1" s="12"/>
+      <c r="AH1" s="11"/>
+      <c r="AI1" s="11"/>
+      <c r="AJ1" s="12"/>
+      <c r="AK1" s="12"/>
+      <c r="AL1" s="12"/>
+      <c r="AM1" s="12"/>
+      <c r="AN1" s="12"/>
+      <c r="AO1" s="12"/>
+    </row>
+    <row r="2" s="3" customFormat="1" ht="31.2" spans="1:41">
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>307</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>308</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>310</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>311</v>
+      </c>
+      <c r="I2" s="23" t="s">
+        <v>312</v>
+      </c>
+      <c r="J2" s="23" t="s">
+        <v>313</v>
+      </c>
+      <c r="K2" s="23" t="s">
+        <v>314</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="W2" s="12"/>
+      <c r="X2" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="AA2" s="12"/>
+      <c r="AB2" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="AC2" s="12"/>
+      <c r="AD2" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="AE2" s="12"/>
+      <c r="AF2" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="AG2" s="12"/>
+      <c r="AH2" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="AI2" s="12"/>
+      <c r="AJ2" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="AK2" s="12"/>
+      <c r="AL2" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="AM2" s="12"/>
+      <c r="AN2" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="AO2" s="12"/>
+    </row>
+    <row r="3" ht="59" customHeight="1" spans="1:41">
+      <c r="A3" s="25" t="s">
+        <v>329</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>330</v>
+      </c>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22">
+        <v>1</v>
+      </c>
+      <c r="E3" s="22">
+        <v>1</v>
+      </c>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22">
+        <v>1</v>
+      </c>
+      <c r="H3" s="22">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="27" t="s">
+        <v>331</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1</v>
+      </c>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="28" t="s">
+        <v>332</v>
+      </c>
+      <c r="O3" s="12"/>
+      <c r="P3" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12">
+        <v>1</v>
+      </c>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12">
+        <v>1</v>
+      </c>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="12"/>
+      <c r="Z3" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="12"/>
+      <c r="AB3" s="12">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="12"/>
+      <c r="AD3" s="12"/>
+      <c r="AE3" s="12"/>
+      <c r="AF3" s="12">
+        <v>1</v>
+      </c>
+      <c r="AG3" s="12"/>
+      <c r="AH3" s="11">
+        <v>1</v>
+      </c>
+      <c r="AI3" s="11"/>
+      <c r="AJ3" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK3" s="12"/>
+      <c r="AL3" s="12">
+        <v>1</v>
+      </c>
+      <c r="AM3" s="12"/>
+      <c r="AN3" s="12">
+        <v>1</v>
+      </c>
+      <c r="AO3" s="12"/>
+    </row>
+    <row r="4" ht="33" customHeight="1" spans="1:43">
+      <c r="A4" s="25"/>
+      <c r="B4" s="23" t="s">
+        <v>333</v>
+      </c>
+      <c r="C4" s="22">
+        <v>1</v>
+      </c>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22">
+        <v>1</v>
+      </c>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="2">
+        <v>1</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="12">
+        <v>1</v>
+      </c>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="12">
+        <v>1</v>
+      </c>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="12"/>
+      <c r="AA4" s="12"/>
+      <c r="AB4" s="12"/>
+      <c r="AC4" s="12"/>
+      <c r="AD4" s="12">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="12"/>
+      <c r="AF4" s="12"/>
+      <c r="AG4" s="12"/>
+      <c r="AH4" s="11"/>
+      <c r="AI4" s="11"/>
+      <c r="AJ4" s="12"/>
+      <c r="AK4" s="12"/>
+      <c r="AL4" s="12"/>
+      <c r="AM4" s="12"/>
+      <c r="AN4" s="12"/>
+      <c r="AO4" s="12"/>
+      <c r="AP4" s="11"/>
+      <c r="AQ4" s="11"/>
+    </row>
+    <row r="5" ht="78" spans="1:43">
+      <c r="A5" s="25"/>
+      <c r="B5" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="C5" s="22"/>
+      <c r="D5" s="24" t="s">
+        <v>335</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>336</v>
+      </c>
+      <c r="F5" s="22">
+        <v>1</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>337</v>
+      </c>
+      <c r="H5" s="22">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2">
+        <v>3</v>
+      </c>
+      <c r="J5" s="23" t="s">
+        <v>338</v>
+      </c>
+      <c r="K5" s="2">
+        <v>2</v>
+      </c>
+      <c r="L5" s="12">
+        <v>2</v>
+      </c>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12">
+        <v>2</v>
+      </c>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12">
+        <v>1</v>
+      </c>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12">
+        <v>2</v>
+      </c>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="Y5" s="12"/>
+      <c r="Z5" s="12">
+        <v>2</v>
+      </c>
+      <c r="AA5" s="12"/>
+      <c r="AB5" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="AC5" s="12"/>
+      <c r="AD5" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="AE5" s="12"/>
+      <c r="AF5" s="12">
+        <v>2</v>
+      </c>
+      <c r="AG5" s="12"/>
+      <c r="AH5" s="11">
+        <v>3</v>
+      </c>
+      <c r="AI5" s="11"/>
+      <c r="AJ5" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="AK5" s="12"/>
+      <c r="AL5" s="12">
+        <v>3</v>
+      </c>
+      <c r="AM5" s="12"/>
+      <c r="AN5" s="12">
+        <v>2</v>
+      </c>
+      <c r="AO5" s="12"/>
+      <c r="AP5" s="11"/>
+      <c r="AQ5" s="11"/>
+    </row>
+    <row r="6" ht="78" spans="1:43">
+      <c r="A6" s="25" t="s">
+        <v>345</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>346</v>
+      </c>
+      <c r="C6" s="22">
+        <v>2</v>
+      </c>
+      <c r="D6" s="22">
+        <v>3</v>
+      </c>
+      <c r="E6" s="22">
+        <v>2</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>347</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>348</v>
+      </c>
+      <c r="H6" s="22">
+        <v>3</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2">
+        <v>1</v>
+      </c>
+      <c r="K6" s="2">
+        <v>2</v>
+      </c>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="28" t="s">
+        <v>349</v>
+      </c>
+      <c r="O6" s="12"/>
+      <c r="P6" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="12">
+        <v>1</v>
+      </c>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12">
+        <v>2</v>
+      </c>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="12"/>
+      <c r="AB6" s="12">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="12"/>
+      <c r="AD6" s="12">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="12"/>
+      <c r="AF6" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="AG6" s="12"/>
+      <c r="AH6" s="28" t="s">
+        <v>352</v>
+      </c>
+      <c r="AI6" s="11"/>
+      <c r="AJ6" s="12"/>
+      <c r="AK6" s="12"/>
+      <c r="AL6" s="12">
+        <v>1</v>
+      </c>
+      <c r="AM6" s="12"/>
+      <c r="AN6" s="12">
+        <v>2</v>
+      </c>
+      <c r="AO6" s="12"/>
+      <c r="AP6" s="11"/>
+      <c r="AQ6" s="11"/>
+    </row>
+    <row r="7" ht="109.2" spans="1:43">
+      <c r="A7" s="25"/>
+      <c r="B7" s="23" t="s">
+        <v>353</v>
+      </c>
+      <c r="C7" s="22">
+        <v>1</v>
+      </c>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="2">
+        <v>1</v>
+      </c>
+      <c r="J7" s="27" t="s">
+        <v>354</v>
+      </c>
+      <c r="K7" s="2"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="12">
+        <v>1</v>
+      </c>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12">
+        <v>1</v>
+      </c>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="12"/>
+      <c r="Y7" s="12"/>
+      <c r="Z7" s="28" t="s">
+        <v>355</v>
+      </c>
+      <c r="AA7" s="12"/>
+      <c r="AB7" s="12"/>
+      <c r="AC7" s="12"/>
+      <c r="AD7" s="12"/>
+      <c r="AE7" s="12"/>
+      <c r="AF7" s="12"/>
+      <c r="AG7" s="12"/>
+      <c r="AH7" s="11"/>
+      <c r="AI7" s="11"/>
+      <c r="AJ7" s="12"/>
+      <c r="AK7" s="12"/>
+      <c r="AL7" s="12"/>
+      <c r="AM7" s="12"/>
+      <c r="AN7" s="12"/>
+      <c r="AO7" s="12"/>
+      <c r="AP7" s="11"/>
+      <c r="AQ7" s="11"/>
+    </row>
+    <row r="8" ht="31.2" spans="1:43">
+      <c r="A8" s="25" t="s">
+        <v>356</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>357</v>
+      </c>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="12"/>
+      <c r="X8" s="12"/>
+      <c r="Y8" s="12"/>
+      <c r="Z8" s="12"/>
+      <c r="AA8" s="12"/>
+      <c r="AB8" s="12"/>
+      <c r="AC8" s="12"/>
+      <c r="AD8" s="12"/>
+      <c r="AE8" s="12"/>
+      <c r="AF8" s="12"/>
+      <c r="AG8" s="12"/>
+      <c r="AH8" s="11"/>
+      <c r="AI8" s="11"/>
+      <c r="AJ8" s="12"/>
+      <c r="AK8" s="12"/>
+      <c r="AL8" s="12"/>
+      <c r="AM8" s="12"/>
+      <c r="AN8" s="12"/>
+      <c r="AO8" s="12"/>
+      <c r="AP8" s="11"/>
+      <c r="AQ8" s="11"/>
+    </row>
+    <row r="9" ht="31.2" spans="1:43">
+      <c r="A9" s="25"/>
+      <c r="B9" s="23" t="s">
+        <v>359</v>
+      </c>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12">
+        <v>1</v>
+      </c>
+      <c r="U9" s="12"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="12"/>
+      <c r="X9" s="12"/>
+      <c r="Y9" s="12"/>
+      <c r="Z9" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA9" s="12"/>
+      <c r="AB9" s="12"/>
+      <c r="AC9" s="12"/>
+      <c r="AD9" s="12"/>
+      <c r="AE9" s="12"/>
+      <c r="AF9" s="12"/>
+      <c r="AG9" s="12"/>
+      <c r="AH9" s="11"/>
+      <c r="AI9" s="11"/>
+      <c r="AJ9" s="12"/>
+      <c r="AK9" s="12"/>
+      <c r="AL9" s="12"/>
+      <c r="AM9" s="12"/>
+      <c r="AN9" s="12"/>
+      <c r="AO9" s="12"/>
+      <c r="AP9" s="11"/>
+      <c r="AQ9" s="11"/>
+    </row>
+    <row r="10" ht="75" customHeight="1" spans="1:43">
+      <c r="A10" s="25"/>
+      <c r="B10" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C10" s="22">
+        <v>1</v>
+      </c>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22">
+        <v>1</v>
+      </c>
+      <c r="H10" s="22">
+        <v>1</v>
+      </c>
+      <c r="I10" s="2"/>
+      <c r="J10" s="27" t="s">
+        <v>361</v>
+      </c>
+      <c r="K10" s="27" t="s">
+        <v>362</v>
+      </c>
+      <c r="L10" s="12">
+        <v>1</v>
+      </c>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="O10" s="12"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="12">
+        <v>1</v>
+      </c>
+      <c r="W10" s="12"/>
+      <c r="X10" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="12"/>
+      <c r="Z10" s="12"/>
+      <c r="AA10" s="12"/>
+      <c r="AB10" s="12"/>
+      <c r="AC10" s="12"/>
+      <c r="AD10" s="12"/>
+      <c r="AE10" s="12"/>
+      <c r="AF10" s="12"/>
+      <c r="AG10" s="12"/>
+      <c r="AH10" s="28" t="s">
+        <v>364</v>
+      </c>
+      <c r="AI10" s="30"/>
+      <c r="AJ10" s="28" t="s">
+        <v>365</v>
+      </c>
+      <c r="AK10" s="28"/>
+      <c r="AL10" s="12">
+        <v>1</v>
+      </c>
+      <c r="AM10" s="12"/>
+      <c r="AN10" s="12">
+        <v>1</v>
+      </c>
+      <c r="AO10" s="12"/>
+      <c r="AP10" s="11"/>
+      <c r="AQ10" s="11"/>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="22">
+        <v>-5</v>
+      </c>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="11">
+        <v>-8</v>
+      </c>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="22">
+        <v>24</v>
+      </c>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+    </row>
+    <row r="13" ht="62.4" spans="1:40">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="10" t="s">
-        <v>302</v>
-      </c>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="11" t="s">
-        <v>303</v>
-      </c>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
-      <c r="X1" s="11"/>
-      <c r="Y1" s="11"/>
-      <c r="Z1" s="11"/>
-      <c r="AA1" s="11"/>
-      <c r="AB1" s="11"/>
-      <c r="AC1" s="11"/>
-      <c r="AD1" s="11" t="s">
-        <v>304</v>
-      </c>
-      <c r="AE1" s="11"/>
-      <c r="AF1" s="11"/>
-      <c r="AG1" s="11"/>
-      <c r="AH1" s="10"/>
-      <c r="AI1" s="10"/>
-      <c r="AJ1" s="11"/>
-      <c r="AK1" s="11"/>
-      <c r="AL1" s="11"/>
-      <c r="AM1" s="11"/>
-      <c r="AN1" s="11"/>
-      <c r="AO1" s="11"/>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="33" spans="1:41">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="L2" s="11" t="s">
+      <c r="K13" s="2"/>
+      <c r="L13" s="23" t="s">
+        <v>291</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="N13" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="T13" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="V13" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="W13" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="X13" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y13" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z13" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="AA13" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="AB13" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="AC13" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="AD13" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF13" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AG13" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="AH13" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI13" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AJ13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL13" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM13" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN13" s="31" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" ht="62.4" spans="1:41">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="23" t="s">
+        <v>293</v>
+      </c>
+      <c r="M14" s="2"/>
+      <c r="N14" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z14" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="AB14" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC14" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="AD14" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="AE14" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF14" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG14" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ14" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK14" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL14" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO14" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" ht="46.8" spans="1:40">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="23" t="s">
+        <v>294</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="N15" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="T15" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="V15" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="W15" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="X15" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y15" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z15" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="AA15" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="AB15" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="AC15" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD15" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="AE15" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="AF15" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="AG15" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AH15" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AI15" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AJ15" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK15" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL15" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM15" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN15" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" ht="109.2" spans="1:41">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="23" t="s">
+        <v>296</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="N16" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="R16" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="S16" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="T16" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="V16" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="W16" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="X16" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y16" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z16" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA16" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="AB16" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC16" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD16" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF16" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="AG16" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="AH16" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AI16" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AN16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO16" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" ht="78" spans="1:41">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="M17" s="2"/>
+      <c r="N17" s="23" t="s">
+        <v>238</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="T17" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="U17" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="V17" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="X17" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z17" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA17" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB17" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD17" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="AE17" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF17" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="AG17" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH17" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI17" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AJ17" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AK17" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AL17" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM17" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AO17" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" ht="62.4" spans="1:41">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="M18" s="2"/>
+      <c r="N18" s="23" t="s">
+        <v>240</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="U18" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="V18" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="X18" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y18" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="Z18" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA18" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB18" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="AC18" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="AD18" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="AE18" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AF18" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ18" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AK18" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL18" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM18" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AO18" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" ht="78" spans="1:41">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="23" t="s">
+        <v>298</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="N19" s="23" t="s">
+        <v>242</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="T19" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="U19" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="V19" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z19" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA19" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB19" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="AC19" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="AD19" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF19" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG19" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH19" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI19" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AO19" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" ht="140.4" spans="14:41">
+      <c r="N20" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="V20" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z20" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="AA20" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="AB20" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH20" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI20" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AL20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AM20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AO20" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" ht="93.6" spans="14:41">
+      <c r="N21" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z21" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="AA21" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="AB21" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC21" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="AL21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AO21" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" ht="78" spans="14:41">
+      <c r="N22" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="Z22" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="AA22" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="AB22" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="AC22" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="AL22" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN22" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AO22" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" ht="31.2" spans="14:41">
+      <c r="N23" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="Z23" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA23" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB23" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="AC23" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="AL23" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM23" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AN23" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO23" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" ht="31.2" spans="14:41">
+      <c r="N24" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="Z24" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL24" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AM24" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN24" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AO24" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="14:41">
+      <c r="N25" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="Z25" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="AA25" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="AN25" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO25" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" ht="46.8" spans="14:41">
+      <c r="N26" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="Z26" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AN26" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO26" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="14:41">
+      <c r="N27" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="Z27" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="AA27" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="AN27" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AO27" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="14:41">
+      <c r="N28" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="Z28" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="AA28" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN28" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AO28" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" ht="78.6" spans="14:41">
+      <c r="N29" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="AN29" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AO29" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="14:41">
+      <c r="N30" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="AN30" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO30" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="14:41">
+      <c r="N31" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="AN31" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO31" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" ht="31.2" spans="14:41">
+      <c r="N32" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="AN32" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AO32" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="14:41">
+      <c r="N33" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="AN33" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO33" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" ht="31.2" spans="14:40">
+      <c r="N34" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="AN34" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" ht="78" spans="14:41">
+      <c r="N35" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="AN35" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AO35" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="14:15">
+      <c r="N36" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="37" spans="14:15">
+      <c r="N37" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="38" spans="14:15">
+      <c r="N38" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="39" spans="14:15">
+      <c r="N39" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="40" spans="14:15">
+      <c r="N40" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="41" spans="14:15">
+      <c r="N41" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="42" spans="14:15">
+      <c r="N42" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="43" spans="14:15">
+      <c r="N43" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="44" spans="14:15">
+      <c r="N44" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="45" spans="14:15">
+      <c r="N45" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="46" ht="46.8" spans="14:15">
+      <c r="N46" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="O46" s="3" t="s">
         <v>290</v>
-      </c>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11" t="s">
-        <v>314</v>
-      </c>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11" t="s">
-        <v>316</v>
-      </c>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="W2" s="11"/>
-      <c r="X2" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="Y2" s="11"/>
-      <c r="Z2" s="11" t="s">
-        <v>320</v>
-      </c>
-      <c r="AA2" s="11"/>
-      <c r="AB2" s="11" t="s">
-        <v>321</v>
-      </c>
-      <c r="AC2" s="11"/>
-      <c r="AD2" s="11" t="s">
-        <v>322</v>
-      </c>
-      <c r="AE2" s="11"/>
-      <c r="AF2" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="AG2" s="11"/>
-      <c r="AH2" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="AI2" s="11"/>
-      <c r="AJ2" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="AK2" s="11"/>
-      <c r="AL2" s="11" t="s">
-        <v>326</v>
-      </c>
-      <c r="AM2" s="11"/>
-      <c r="AN2" s="11" t="s">
-        <v>327</v>
-      </c>
-      <c r="AO2" s="11"/>
-    </row>
-    <row r="3" ht="59" customHeight="1" spans="1:41">
-      <c r="A3" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5">
-        <v>1</v>
-      </c>
-      <c r="E3" s="5">
-        <v>1</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5">
-        <v>1</v>
-      </c>
-      <c r="H3" s="5">
-        <v>1</v>
-      </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="12" t="s">
-        <v>330</v>
-      </c>
-      <c r="K3" s="4">
-        <v>1</v>
-      </c>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="13" t="s">
-        <v>331</v>
-      </c>
-      <c r="O3" s="11"/>
-      <c r="P3" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11">
-        <v>1</v>
-      </c>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11">
-        <v>1</v>
-      </c>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11">
-        <v>1</v>
-      </c>
-      <c r="Y3" s="11"/>
-      <c r="Z3" s="11">
-        <v>1</v>
-      </c>
-      <c r="AA3" s="11"/>
-      <c r="AB3" s="11">
-        <v>1</v>
-      </c>
-      <c r="AC3" s="11"/>
-      <c r="AD3" s="11"/>
-      <c r="AE3" s="11"/>
-      <c r="AF3" s="11">
-        <v>1</v>
-      </c>
-      <c r="AG3" s="11"/>
-      <c r="AH3" s="10">
-        <v>1</v>
-      </c>
-      <c r="AI3" s="10"/>
-      <c r="AJ3" s="11">
-        <v>1</v>
-      </c>
-      <c r="AK3" s="11"/>
-      <c r="AL3" s="11">
-        <v>1</v>
-      </c>
-      <c r="AM3" s="11"/>
-      <c r="AN3" s="11">
-        <v>1</v>
-      </c>
-      <c r="AO3" s="11"/>
-    </row>
-    <row r="4" ht="33" customHeight="1" spans="1:43">
-      <c r="A4" s="8"/>
-      <c r="B4" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="C4" s="5">
-        <v>1</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5">
-        <v>1</v>
-      </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="4">
-        <v>1</v>
-      </c>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="11">
-        <v>1</v>
-      </c>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="11">
-        <v>1</v>
-      </c>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="11"/>
-      <c r="Z4" s="11"/>
-      <c r="AA4" s="11"/>
-      <c r="AB4" s="11"/>
-      <c r="AC4" s="11"/>
-      <c r="AD4" s="11">
-        <v>1</v>
-      </c>
-      <c r="AE4" s="11"/>
-      <c r="AF4" s="11"/>
-      <c r="AG4" s="11"/>
-      <c r="AH4" s="10"/>
-      <c r="AI4" s="10"/>
-      <c r="AJ4" s="11"/>
-      <c r="AK4" s="11"/>
-      <c r="AL4" s="11"/>
-      <c r="AM4" s="11"/>
-      <c r="AN4" s="11"/>
-      <c r="AO4" s="11"/>
-      <c r="AP4" s="10"/>
-      <c r="AQ4" s="10"/>
-    </row>
-    <row r="5" ht="82.5" spans="1:43">
-      <c r="A5" s="8"/>
-      <c r="B5" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="F5" s="5">
-        <v>1</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>336</v>
-      </c>
-      <c r="H5" s="5">
-        <v>1</v>
-      </c>
-      <c r="I5" s="4">
-        <v>3</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="K5" s="4">
-        <v>2</v>
-      </c>
-      <c r="L5" s="11">
-        <v>2</v>
-      </c>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11" t="s">
-        <v>338</v>
-      </c>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11" t="s">
-        <v>339</v>
-      </c>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11">
-        <v>2</v>
-      </c>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11">
-        <v>1</v>
-      </c>
-      <c r="U5" s="11"/>
-      <c r="V5" s="11">
-        <v>2</v>
-      </c>
-      <c r="W5" s="11"/>
-      <c r="X5" s="11" t="s">
-        <v>340</v>
-      </c>
-      <c r="Y5" s="11"/>
-      <c r="Z5" s="11">
-        <v>2</v>
-      </c>
-      <c r="AA5" s="11"/>
-      <c r="AB5" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="AC5" s="11"/>
-      <c r="AD5" s="11" t="s">
-        <v>342</v>
-      </c>
-      <c r="AE5" s="11"/>
-      <c r="AF5" s="11">
-        <v>2</v>
-      </c>
-      <c r="AG5" s="11"/>
-      <c r="AH5" s="10">
-        <v>3</v>
-      </c>
-      <c r="AI5" s="10"/>
-      <c r="AJ5" s="11" t="s">
-        <v>343</v>
-      </c>
-      <c r="AK5" s="11"/>
-      <c r="AL5" s="11">
-        <v>3</v>
-      </c>
-      <c r="AM5" s="11"/>
-      <c r="AN5" s="11">
-        <v>2</v>
-      </c>
-      <c r="AO5" s="11"/>
-      <c r="AP5" s="10"/>
-      <c r="AQ5" s="10"/>
-    </row>
-    <row r="6" ht="82.5" spans="1:43">
-      <c r="A6" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="C6" s="5">
-        <v>2</v>
-      </c>
-      <c r="D6" s="5">
-        <v>3</v>
-      </c>
-      <c r="E6" s="5">
-        <v>2</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="H6" s="5">
-        <v>3</v>
-      </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4">
-        <v>1</v>
-      </c>
-      <c r="K6" s="4">
-        <v>2</v>
-      </c>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="13" t="s">
-        <v>348</v>
-      </c>
-      <c r="O6" s="11"/>
-      <c r="P6" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="11">
-        <v>1</v>
-      </c>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11">
-        <v>2</v>
-      </c>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11" t="s">
-        <v>349</v>
-      </c>
-      <c r="W6" s="11"/>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="11"/>
-      <c r="Z6" s="11">
-        <v>1</v>
-      </c>
-      <c r="AA6" s="11"/>
-      <c r="AB6" s="11">
-        <v>1</v>
-      </c>
-      <c r="AC6" s="11"/>
-      <c r="AD6" s="11">
-        <v>1</v>
-      </c>
-      <c r="AE6" s="11"/>
-      <c r="AF6" s="11" t="s">
-        <v>350</v>
-      </c>
-      <c r="AG6" s="11"/>
-      <c r="AH6" s="13" t="s">
-        <v>351</v>
-      </c>
-      <c r="AI6" s="10"/>
-      <c r="AJ6" s="11"/>
-      <c r="AK6" s="11"/>
-      <c r="AL6" s="11">
-        <v>1</v>
-      </c>
-      <c r="AM6" s="11"/>
-      <c r="AN6" s="11">
-        <v>2</v>
-      </c>
-      <c r="AO6" s="11"/>
-      <c r="AP6" s="10"/>
-      <c r="AQ6" s="10"/>
-    </row>
-    <row r="7" ht="115.5" spans="1:43">
-      <c r="A7" s="8"/>
-      <c r="B7" s="6" t="s">
-        <v>352</v>
-      </c>
-      <c r="C7" s="5">
-        <v>1</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="4">
-        <v>1</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>353</v>
-      </c>
-      <c r="K7" s="4"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="11">
-        <v>1</v>
-      </c>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11">
-        <v>1</v>
-      </c>
-      <c r="U7" s="11"/>
-      <c r="V7" s="11"/>
-      <c r="W7" s="11"/>
-      <c r="X7" s="11"/>
-      <c r="Y7" s="11"/>
-      <c r="Z7" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="AA7" s="11"/>
-      <c r="AB7" s="11"/>
-      <c r="AC7" s="11"/>
-      <c r="AD7" s="11"/>
-      <c r="AE7" s="11"/>
-      <c r="AF7" s="11"/>
-      <c r="AG7" s="11"/>
-      <c r="AH7" s="10"/>
-      <c r="AI7" s="10"/>
-      <c r="AJ7" s="11"/>
-      <c r="AK7" s="11"/>
-      <c r="AL7" s="11"/>
-      <c r="AM7" s="11"/>
-      <c r="AN7" s="11"/>
-      <c r="AO7" s="11"/>
-      <c r="AP7" s="10"/>
-      <c r="AQ7" s="10"/>
-    </row>
-    <row r="8" ht="33" spans="1:43">
-      <c r="A8" s="8" t="s">
-        <v>355</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>356</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="11" t="s">
-        <v>357</v>
-      </c>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11"/>
-      <c r="V8" s="11"/>
-      <c r="W8" s="11"/>
-      <c r="X8" s="11"/>
-      <c r="Y8" s="11"/>
-      <c r="Z8" s="11"/>
-      <c r="AA8" s="11"/>
-      <c r="AB8" s="11"/>
-      <c r="AC8" s="11"/>
-      <c r="AD8" s="11"/>
-      <c r="AE8" s="11"/>
-      <c r="AF8" s="11"/>
-      <c r="AG8" s="11"/>
-      <c r="AH8" s="10"/>
-      <c r="AI8" s="10"/>
-      <c r="AJ8" s="11"/>
-      <c r="AK8" s="11"/>
-      <c r="AL8" s="11"/>
-      <c r="AM8" s="11"/>
-      <c r="AN8" s="11"/>
-      <c r="AO8" s="11"/>
-      <c r="AP8" s="10"/>
-      <c r="AQ8" s="10"/>
-    </row>
-    <row r="9" ht="33" spans="1:43">
-      <c r="A9" s="8"/>
-      <c r="B9" s="6" t="s">
-        <v>358</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11">
-        <v>1</v>
-      </c>
-      <c r="U9" s="11"/>
-      <c r="V9" s="11"/>
-      <c r="W9" s="11"/>
-      <c r="X9" s="11"/>
-      <c r="Y9" s="11"/>
-      <c r="Z9" s="11">
-        <v>1</v>
-      </c>
-      <c r="AA9" s="11"/>
-      <c r="AB9" s="11"/>
-      <c r="AC9" s="11"/>
-      <c r="AD9" s="11"/>
-      <c r="AE9" s="11"/>
-      <c r="AF9" s="11"/>
-      <c r="AG9" s="11"/>
-      <c r="AH9" s="10"/>
-      <c r="AI9" s="10"/>
-      <c r="AJ9" s="11"/>
-      <c r="AK9" s="11"/>
-      <c r="AL9" s="11"/>
-      <c r="AM9" s="11"/>
-      <c r="AN9" s="11"/>
-      <c r="AO9" s="11"/>
-      <c r="AP9" s="10"/>
-      <c r="AQ9" s="10"/>
-    </row>
-    <row r="10" ht="75" customHeight="1" spans="1:43">
-      <c r="A10" s="8"/>
-      <c r="B10" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="C10" s="5">
-        <v>1</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5">
-        <v>1</v>
-      </c>
-      <c r="H10" s="5">
-        <v>1</v>
-      </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="12" t="s">
-        <v>360</v>
-      </c>
-      <c r="K10" s="12" t="s">
-        <v>361</v>
-      </c>
-      <c r="L10" s="11">
-        <v>1</v>
-      </c>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11" t="s">
-        <v>362</v>
-      </c>
-      <c r="O10" s="11"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="11"/>
-      <c r="V10" s="11">
-        <v>1</v>
-      </c>
-      <c r="W10" s="11"/>
-      <c r="X10" s="11">
-        <v>1</v>
-      </c>
-      <c r="Y10" s="11"/>
-      <c r="Z10" s="11"/>
-      <c r="AA10" s="11"/>
-      <c r="AB10" s="11"/>
-      <c r="AC10" s="11"/>
-      <c r="AD10" s="11"/>
-      <c r="AE10" s="11"/>
-      <c r="AF10" s="11"/>
-      <c r="AG10" s="11"/>
-      <c r="AH10" s="13" t="s">
-        <v>363</v>
-      </c>
-      <c r="AI10" s="15"/>
-      <c r="AJ10" s="13" t="s">
-        <v>364</v>
-      </c>
-      <c r="AK10" s="13"/>
-      <c r="AL10" s="11">
-        <v>1</v>
-      </c>
-      <c r="AM10" s="11"/>
-      <c r="AN10" s="11">
-        <v>1</v>
-      </c>
-      <c r="AO10" s="11"/>
-      <c r="AP10" s="10"/>
-      <c r="AQ10" s="10"/>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5">
-        <v>-5</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="10">
-        <v>-8</v>
-      </c>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5">
-        <v>24</v>
-      </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-    </row>
-    <row r="13" ht="66" spans="1:40">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="K13" s="4"/>
-      <c r="L13" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="N13" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="O13" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q13" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="R13" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="S13" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="T13" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="V13" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="W13" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="X13" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="Y13" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="Z13" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="AA13" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="AB13" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="AC13" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="AD13" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AF13" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="AG13" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AH13" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AI13" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="AJ13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AK13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AL13" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AM13" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AN13" s="16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" ht="66" spans="1:41">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="M14" s="4"/>
-      <c r="N14" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="O14" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="P14" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q14" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="S14" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="T14" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="U14" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="V14" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="W14" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="X14" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z14" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="AA14" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="AB14" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="AC14" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="AD14" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AE14" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="AF14" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AG14" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AH14" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AI14" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AJ14" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AK14" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AL14" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AN14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AO14" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" ht="49.5" spans="1:40">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="N15" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="O15" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="P15" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q15" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="R15" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="S15" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="T15" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="U15" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="V15" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="W15" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="X15" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="Y15" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="Z15" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="AA15" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="AB15" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="AC15" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="AD15" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AE15" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="AF15" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AG15" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AH15" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="AI15" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="AJ15" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AK15" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL15" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AM15" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AN15" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" ht="115.5" spans="1:41">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="M16" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="N16" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="O16" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="P16" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q16" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="R16" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="S16" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="T16" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="V16" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="W16" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="X16" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y16" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z16" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="AA16" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="AB16" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AC16" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="AD16" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AF16" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AG16" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="AH16" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AI16" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="AJ16" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AK16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AN16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AO16" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" ht="82.5" spans="1:41">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="M17" s="4"/>
-      <c r="N17" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="O17" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="P17" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="R17" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="T17" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="U17" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="V17" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="X17" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z17" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AA17" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB17" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AD17" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AE17" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AF17" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AG17" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AH17" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="AI17" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="AJ17" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AK17" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AL17" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AM17" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AO17" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" ht="66" spans="1:41">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="M18" s="4"/>
-      <c r="N18" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="O18" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="T18" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="U18" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="V18" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="X18" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="Y18" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="Z18" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="AA18" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="AB18" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="AC18" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AD18" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="AE18" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AF18" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AH18" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AJ18" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AK18" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AL18" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AM18" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AN18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AO18" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" ht="82.5" spans="1:41">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="M19" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="N19" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="O19" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="T19" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="U19" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="V19" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="Z19" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="AA19" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="AB19" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="AC19" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="AD19" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AF19" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG19" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH19" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AI19" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AL19" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AN19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AO19" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" ht="148.5" spans="14:41">
-      <c r="N20" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="T20" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="V20" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="Z20" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="AA20" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="AB20" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AH20" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="AI20" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="AL20" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AM20" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AN20" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="AO20" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" ht="99" spans="14:41">
-      <c r="N21" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="T21" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="U21" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="Z21" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="AA21" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="AB21" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="AC21" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="AL21" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AN21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AO21" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" ht="82.5" spans="14:41">
-      <c r="N22" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="O22" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="T22" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="U22" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="Z22" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="AA22" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="AB22" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="AC22" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="AL22" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN22" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AO22" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" ht="18" spans="14:41">
-      <c r="N23" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="O23" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="Z23" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA23" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AB23" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="AC23" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="AL23" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="AM23" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AN23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AO23" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="14:41">
-      <c r="N24" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="O24" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="Z24" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AL24" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AM24" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AN24" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AO24" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="14:41">
-      <c r="N25" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="Z25" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="AA25" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="AN25" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AO25" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" ht="49.5" spans="14:41">
-      <c r="N26" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="O26" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="Z26" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AN26" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO26" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="14:41">
-      <c r="N27" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="O27" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="Z27" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="AA27" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="AN27" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AO27" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="14:41">
-      <c r="N28" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="O28" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="Z28" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="AA28" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="AN28" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AO28" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" ht="82.5" spans="14:41">
-      <c r="N29" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="O29" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="AN29" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AO29" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="14:41">
-      <c r="N30" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="O30" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="AN30" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AO30" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="31" spans="14:41">
-      <c r="N31" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="O31" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="AN31" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AO31" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="32" ht="33" spans="14:41">
-      <c r="N32" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="O32" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="AN32" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="AO32" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" spans="14:41">
-      <c r="N33" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="O33" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="AN33" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AO33" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="34" ht="33" spans="14:40">
-      <c r="N34" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="O34" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="AN34" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35" ht="66" spans="14:41">
-      <c r="N35" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="O35" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="AN35" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="AO35" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="14:15">
-      <c r="N36" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="O36" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="37" spans="14:15">
-      <c r="N37" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="O37" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="38" spans="14:15">
-      <c r="N38" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="O38" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="39" spans="14:15">
-      <c r="N39" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="O39" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="40" spans="14:15">
-      <c r="N40" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="O40" s="2" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="41" spans="14:15">
-      <c r="N41" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="O41" s="2" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="42" spans="14:15">
-      <c r="N42" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="O42" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="43" spans="14:15">
-      <c r="N43" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="O43" s="2" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="44" spans="14:15">
-      <c r="N44" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="O44" s="2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="45" spans="14:15">
-      <c r="N45" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="O45" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="46" ht="49.5" spans="14:15">
-      <c r="N46" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="O46" s="1" t="s">
-        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -6643,14 +7460,651 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <cols>
+    <col min="1" max="1" width="21.7777777777778" style="1" customWidth="1"/>
+    <col min="2" max="2" width="36.6666666666667" style="2" customWidth="1"/>
+    <col min="3" max="3" width="30.3240740740741" style="3" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7592592592593" style="3" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="26.7962962962963" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="37.6481481481481" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="8" width="19.7777777777778" style="4" customWidth="1"/>
+    <col min="9" max="9" width="28.3611111111111" style="4" customWidth="1"/>
+    <col min="10" max="10" width="15.5555555555556" style="1" customWidth="1"/>
+    <col min="11" max="11" width="23.6574074074074" style="4" customWidth="1"/>
+    <col min="12" max="12" width="22.212962962963" style="4" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="H2" s="6"/>
+      <c r="I2" s="15" t="s">
+        <v>374</v>
+      </c>
+      <c r="J2" s="16"/>
+      <c r="K2" s="15" t="s">
+        <v>375</v>
+      </c>
+      <c r="L2" s="15"/>
+    </row>
+    <row r="3" ht="46.8" spans="1:12">
+      <c r="A3" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="10">
+        <v>1</v>
+      </c>
+      <c r="F3" s="10"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="17">
+        <v>1</v>
+      </c>
+      <c r="J3" s="18"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="18"/>
+    </row>
+    <row r="4" ht="46.8" spans="1:12">
+      <c r="A4" s="9"/>
+      <c r="B4" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="C4" s="8">
+        <v>1</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10">
+        <v>1</v>
+      </c>
+      <c r="G4" s="6">
+        <v>1</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="18"/>
+    </row>
+    <row r="5" ht="191" customHeight="1" spans="1:12">
+      <c r="A5" s="9"/>
+      <c r="B5" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="C5" s="8">
+        <v>2</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8">
+        <v>3</v>
+      </c>
+      <c r="F5" s="10">
+        <v>3</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="17" t="s">
+        <v>377</v>
+      </c>
+      <c r="J5" s="18"/>
+      <c r="K5" s="17" t="s">
+        <v>378</v>
+      </c>
+      <c r="L5" s="18"/>
+    </row>
+    <row r="6" ht="62.4" spans="1:12">
+      <c r="A6" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="10">
+        <v>1</v>
+      </c>
+      <c r="F6" s="8">
+        <v>1</v>
+      </c>
+      <c r="G6" s="6">
+        <v>1</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="17">
+        <v>2</v>
+      </c>
+      <c r="L6" s="18"/>
+    </row>
+    <row r="7" ht="62.4" spans="1:12">
+      <c r="A7" s="9"/>
+      <c r="B7" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="10">
+        <v>1</v>
+      </c>
+      <c r="F7" s="10"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="18"/>
+    </row>
+    <row r="8" ht="31.2" spans="1:12">
+      <c r="A8" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="18"/>
+    </row>
+    <row r="9" ht="46.8" spans="1:12">
+      <c r="A9" s="9"/>
+      <c r="B9" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="18"/>
+    </row>
+    <row r="10" ht="52" customHeight="1" spans="1:12">
+      <c r="A10" s="9"/>
+      <c r="B10" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="C10" s="8">
+        <v>2</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10">
+        <v>1</v>
+      </c>
+      <c r="G10" s="6">
+        <v>1</v>
+      </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="17" t="s">
+        <v>379</v>
+      </c>
+      <c r="J10" s="18"/>
+      <c r="K10" s="17">
+        <v>1</v>
+      </c>
+      <c r="L10" s="18"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+    </row>
+    <row r="13" ht="48.6" spans="1:12">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14" t="s">
+        <v>384</v>
+      </c>
+      <c r="J13" s="19" t="s">
+        <v>385</v>
+      </c>
+      <c r="K13" s="20" t="s">
+        <v>386</v>
+      </c>
+      <c r="L13" s="14"/>
+    </row>
+    <row r="14" ht="62.4" spans="1:12">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="12" t="s">
+        <v>387</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="I14" s="14" t="s">
+        <v>393</v>
+      </c>
+      <c r="J14" s="19" t="s">
+        <v>394</v>
+      </c>
+      <c r="K14" s="14" t="s">
+        <v>395</v>
+      </c>
+      <c r="L14" s="14" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="15" ht="46.8" spans="1:12">
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="D15" s="12"/>
+      <c r="E15" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="J15" s="19" t="s">
+        <v>402</v>
+      </c>
+      <c r="K15" s="14" t="s">
+        <v>403</v>
+      </c>
+      <c r="L15" s="14"/>
+    </row>
+    <row r="16" ht="46.8" spans="1:12">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12" t="s">
+        <v>404</v>
+      </c>
+      <c r="D16" s="12"/>
+      <c r="E16" s="11" t="s">
+        <v>405</v>
+      </c>
+      <c r="F16" s="11"/>
+      <c r="G16" s="12" t="s">
+        <v>406</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>407</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>408</v>
+      </c>
+      <c r="J16" s="19"/>
+      <c r="K16" s="14" t="s">
+        <v>409</v>
+      </c>
+      <c r="L16" s="14" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="17" ht="46.8" spans="1:12">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="D17" s="12"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="12" t="s">
+        <v>412</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>413</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>414</v>
+      </c>
+      <c r="J17" s="19" t="s">
+        <v>415</v>
+      </c>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+    </row>
+    <row r="18" ht="62.4" spans="1:12">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="D18" s="12"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="12" t="s">
+        <v>417</v>
+      </c>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14" t="s">
+        <v>418</v>
+      </c>
+      <c r="J18" s="19" t="s">
+        <v>419</v>
+      </c>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+    </row>
+    <row r="19" ht="28.8" spans="1:12">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="12" t="s">
+        <v>420</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="13" t="s">
+        <v>422</v>
+      </c>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14" t="s">
+        <v>423</v>
+      </c>
+      <c r="J19" s="19"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+    </row>
+    <row r="20" ht="62.4" spans="1:12">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="D20" s="12"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14" t="s">
+        <v>425</v>
+      </c>
+      <c r="J20" s="19" t="s">
+        <v>426</v>
+      </c>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+    </row>
+    <row r="21" ht="31.2" spans="1:12">
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12" t="s">
+        <v>427</v>
+      </c>
+      <c r="D21" s="12"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14" t="s">
+        <v>428</v>
+      </c>
+      <c r="J21" s="19" t="s">
+        <v>429</v>
+      </c>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+    </row>
+    <row r="22" ht="46.8" spans="1:12">
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12" t="s">
+        <v>430</v>
+      </c>
+      <c r="D22" s="12"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14" t="s">
+        <v>431</v>
+      </c>
+      <c r="J22" s="19"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+    </row>
+    <row r="23" ht="46.8" spans="1:12">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="D23" s="12"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14" t="s">
+        <v>433</v>
+      </c>
+      <c r="J23" s="19"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+    </row>
+    <row r="24" ht="46.8" spans="1:12">
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12" t="s">
+        <v>434</v>
+      </c>
+      <c r="D24" s="12"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14" t="s">
+        <v>435</v>
+      </c>
+      <c r="J24" s="19" t="s">
+        <v>436</v>
+      </c>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="12" t="s">
+        <v>437</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14" t="s">
+        <v>439</v>
+      </c>
+      <c r="J25" s="19" t="s">
+        <v>440</v>
+      </c>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+    </row>
+    <row r="26" ht="46.8" spans="1:12">
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="12" t="s">
+        <v>441</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>442</v>
+      </c>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14" t="s">
+        <v>443</v>
+      </c>
+      <c r="J26" s="19" t="s">
+        <v>444</v>
+      </c>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="44">
+    <mergeCell ref="C1:L1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A10"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/Listening/Questions.xlsx
+++ b/Listening/Questions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22356" windowHeight="10020" activeTab="4"/>
+    <workbookView windowWidth="28116" windowHeight="13260" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="总结" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1402" uniqueCount="830">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1473" uniqueCount="901">
   <si>
     <t>单词 11-14</t>
   </si>
@@ -6263,6 +6263,9 @@
     <t xml:space="preserve">TPO 17 </t>
   </si>
   <si>
+    <t>TPO 18</t>
+  </si>
+  <si>
     <t>Source Material</t>
   </si>
   <si>
@@ -6279,6 +6282,15 @@
   </si>
   <si>
     <t>Octopus（bio）</t>
+  </si>
+  <si>
+    <t>ask for a on-campus job</t>
+  </si>
+  <si>
+    <t>progression of sun spot(astronomy)</t>
+  </si>
+  <si>
+    <t>Greeks copies made by roman(Art history)</t>
   </si>
   <si>
     <r>
@@ -6385,6 +6397,47 @@
   </si>
   <si>
     <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 
+没听exchange的内容即：My family hosted a few </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>far</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> foreign exchange students while I was growing up.
+同时没有明确他是transfer的，不是exchange的student</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>2
 没听清对于waiter说了什么，只听到</t>
     </r>
@@ -6429,6 +6482,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>1</t>
     </r>
     <r>
@@ -6463,6 +6522,23 @@
   </si>
   <si>
     <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+提到现在只有early morning, late night and weekend;
+同时you'd probably end up with a bit of everything rather than a regular sopt
+都是在说时间不太好</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
@@ -6543,6 +6619,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">in the </t>
     </r>
     <r>
@@ -6570,6 +6652,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">they </t>
     </r>
     <r>
@@ -6600,6 +6688,110 @@
   </si>
   <si>
     <r>
+      <t>the only program in the Stat</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>es is</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> here</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>and I think you’ll fin</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>d i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>t rather interesting</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>We’ve a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">lready looked at portrait sculpture which are </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>busts</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> created to commemorate people who had died, and we’ve looked at </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>relief sculpture</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>, or sculpting on walls.</t>
+    </r>
+  </si>
+  <si>
+    <t>半身像；
+浮雕</t>
+  </si>
+  <si>
+    <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
@@ -6684,6 +6876,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>That’s goi</t>
     </r>
     <r>
@@ -6782,6 +6980,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">let’s take a look at the </t>
     </r>
     <r>
@@ -6806,6 +7010,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>Anyone e</t>
     </r>
     <r>
@@ -6830,6 +7040,28 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">My family hosted a few </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>far</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
       <rPr>
         <b/>
         <sz val="11"/>
@@ -6837,6 +7069,117 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
+      <t>foreign</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> exchan</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ge stu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>dents while I was growing up.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Now I’m going to assume that you know that sunspots, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>in the most basic terms</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, are dark spots on the Sun’s surface. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>That will do for now</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>说的通俗些；
+这个理解现在还说得通</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">we’ll look at </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>yet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> another category of sculpture-copies.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>I am h</t>
     </r>
     <r>
@@ -6927,6 +7270,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>I mus</t>
     </r>
     <r>
@@ -6957,6 +7306,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">he could </t>
     </r>
     <r>
@@ -6984,6 +7339,154 @@
   </si>
   <si>
     <r>
+      <t>and that l</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ed yo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>u t</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>o o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ur program</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">That’s because of their belief at the time that the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>heavenly bodies</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, the Sun, Moon, Stars, and Planets, were perfect, without any </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>flaws</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>blemishes</t>
+    </r>
+  </si>
+  <si>
+    <t>天上的天体；
+缺点；
+污渍；</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">they had conquered most of the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Mediterranean</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> area and p</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>arts of Euro</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>pe</t>
+    </r>
+  </si>
+  <si>
+    <t>地中海；
+part词啊urup</t>
+  </si>
+  <si>
+    <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
@@ -7106,6 +7609,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>so I was really hoping to have the dinner hour fr</t>
     </r>
     <r>
@@ -7130,6 +7639,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Egyptian life basically </t>
     </r>
     <r>
@@ -7176,6 +7691,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">it’s </t>
     </r>
     <r>
@@ -7203,6 +7724,82 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">Right now though </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>I assu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">me </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>think</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> you are looking for a job.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>which brings us t</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>o ou</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>r old friend, Galileo.</t>
+    </r>
+  </si>
+  <si>
+    <t>torow</t>
+  </si>
+  <si>
+    <t>To the victor belong the spoils</t>
+  </si>
+  <si>
+    <t>战利品归胜者</t>
+  </si>
+  <si>
+    <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
@@ -7287,6 +7884,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>it is like, fir</t>
     </r>
     <r>
@@ -7314,6 +7917,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">The success of their agriculture system depended </t>
     </r>
     <r>
@@ -7366,6 +7975,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">But when it wants to </t>
     </r>
     <r>
@@ -7393,6 +8008,118 @@
   </si>
   <si>
     <r>
+      <t>I thought</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> I’d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> save money, being away from the big city. But it doesn’t seem to be working that way. Anyway I’m not having much </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>luck</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>An</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>d h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">e also </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>noticed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> that the shape of the sunspots changed as they seemed to move across the Sun’s surface.</t>
+    </r>
+  </si>
+  <si>
+    <t>nou 忒斯</t>
+  </si>
+  <si>
+    <r>
+      <t>is that the Romans copi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.5"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> Greek sculptures because they couldn’t create sculpture of their own.</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
@@ -7447,6 +8174,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">we’ve got some pretty flexible hours for students doing </t>
     </r>
     <r>
@@ -7499,6 +8232,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>we know that the reaction that takes pla</t>
     </r>
     <r>
@@ -7525,6 +8264,90 @@
     <t>听力来和places一样</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">What work experience </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.5"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>av</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>e y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ou had?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">then later it would become more </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>lopsided</t>
+    </r>
+  </si>
+  <si>
+    <t>不平衡的</t>
+  </si>
+  <si>
+    <r>
+      <t>But finally some contemporary a</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>rt histo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>rians have challenged this view.</t>
+    </r>
+  </si>
+  <si>
     <t>And it’s ironic because there’s even a film about the making of the production</t>
   </si>
   <si>
@@ -7589,6 +8412,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">cleaning </t>
     </r>
     <r>
@@ -7616,6 +8445,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">when the Nile valley was </t>
     </r>
     <r>
@@ -7662,6 +8497,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Chromatophores consist of </t>
     </r>
     <r>
@@ -7688,6 +8529,82 @@
     <t>色袋</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">They said their remaining positions were for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>work-study</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> students getting financi</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>al ai</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>d</t>
+    </r>
+  </si>
+  <si>
+    <t>边工作边学习的；sounds like laid</t>
+  </si>
+  <si>
+    <t>at least nothing Galileo could figure out</t>
+  </si>
+  <si>
+    <t>至少这是G观测不出来的</t>
+  </si>
+  <si>
+    <r>
+      <t>Well maybe they ju</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>st a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>dmired these sculptures.</t>
+    </r>
+  </si>
+  <si>
     <t>So now what do I do</t>
   </si>
   <si>
@@ -7743,6 +8660,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">I get to see a lot of the professors, like </t>
     </r>
     <r>
@@ -7776,6 +8699,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">There might be a couple hundred of these color sacks per square </t>
     </r>
     <r>
@@ -7800,6 +8729,87 @@
   </si>
   <si>
     <r>
+      <t>I’ve never ru</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>n into</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> / that before</t>
+    </r>
+  </si>
+  <si>
+    <t>我之前没碰过这样的事情</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">That random shape changing would </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>be consistent with</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> the spots being clouds.</t>
+    </r>
+  </si>
+  <si>
+    <t>与...是一致的</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Gazda also believes that it’s been a mistake to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>dismiss</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> the Roman copies as, well, copies for copy’s sake and not to consider the Roman function and meaning of the statues.</t>
+    </r>
+  </si>
+  <si>
+    <t>轻视</t>
+  </si>
+  <si>
+    <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
@@ -7869,6 +8879,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>In the classr</t>
     </r>
     <r>
@@ -7893,6 +8909,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>an</t>
     </r>
     <r>
@@ -7917,6 +8939,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>An</t>
     </r>
     <r>
@@ -7941,6 +8969,100 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">You might be better </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> of </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>you are</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> waiting until next semester</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> a lot of hypotheses were </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">tossed </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>around</t>
+    </r>
+  </si>
+  <si>
+    <t>提出</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Under the Emperor Augustus </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>at the height of the Roman Empire</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>, portrait statues were sent throughout the empire.</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
@@ -8016,6 +9138,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>we pay students the same amount for any of the jo</t>
     </r>
     <r>
@@ -8046,6 +9174,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Well, they can </t>
     </r>
     <r>
@@ -8070,6 +9204,81 @@
   </si>
   <si>
     <r>
+      <t>Ab</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>out avera</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ge I’d say</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Wolf went through all records from various </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>observatories</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> in Europe</t>
+    </r>
+  </si>
+  <si>
+    <t>观测记录</t>
+  </si>
+  <si>
+    <r>
+      <t>Statues o</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>f h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>im in different roles were sent all over the empire.</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <rPr>
         <b/>
         <sz val="11"/>
@@ -8148,6 +9357,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>I al</t>
     </r>
     <r>
@@ -8181,6 +9397,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>their wa</t>
     </r>
     <r>
@@ -8205,6 +9427,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">maybe they </t>
     </r>
     <r>
@@ -8226,6 +9454,104 @@
       </rPr>
       <t xml:space="preserve"> /mimic every color around them</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The technology support department needs people to work its </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>helpdesk</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>答疑</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">it </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>fluctuates</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> in 11-year cycles</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">they made </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>plaster cast</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">s from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>molds</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> of the sculptures. </t>
+    </r>
+  </si>
+  <si>
+    <t>石膏模具；
+模型</t>
   </si>
   <si>
     <r>
@@ -8339,6 +9665,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">I always thought that </t>
     </r>
     <r>
@@ -8382,6 +9714,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">it’d be hidden in the </t>
     </r>
     <r>
@@ -8409,6 +9747,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">The colors from the color sacks are </t>
     </r>
     <r>
@@ -8436,6 +9780,129 @@
   </si>
   <si>
     <r>
+      <t>Something every diplom</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>at ne</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>eds</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Well</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>we’ll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> cover this later in this semester</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">hen they shipped these plaster casts to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>workshops</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> all over the empire, whe</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>re th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">ey were replicated in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>marble</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> or bronze.</t>
+    </r>
+  </si>
+  <si>
+    <t>作坊；
+大理石</t>
+  </si>
+  <si>
+    <r>
       <rPr>
         <sz val="11"/>
         <color theme="0" tint="-0.35"/>
@@ -8489,6 +9956,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>Let me see</t>
     </r>
     <r>
@@ -8525,6 +9999,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Even though the length of the agricultural calendar </t>
     </r>
     <r>
@@ -8552,6 +10032,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">it can </t>
     </r>
     <r>
@@ -8614,6 +10100,97 @@
   </si>
   <si>
     <r>
+      <t>wh</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>y is</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> the job still open</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">the fact that sunspots are magnetic fields </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>accounts for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> their dark appearance. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>And then later when the ti</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>me cam</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>e they could even use the head of the ne</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>xt em</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>peror on the same body.</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
@@ -8668,6 +10245,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">I should </t>
     </r>
     <r>
@@ -8695,6 +10278,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">But was it </t>
     </r>
     <r>
@@ -8722,6 +10311,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">I read that they often hide from predators by </t>
     </r>
     <r>
@@ -8768,6 +10363,53 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">You’d probably </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>end up with</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> a bit of everything rather than a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>regular spot</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>最后得到；
+你可能无法得到规律的作息</t>
+  </si>
+  <si>
+    <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
@@ -8825,6 +10467,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">the calendar </t>
     </r>
     <r>
@@ -8871,6 +10519,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>enables it to be very flexible to assume a</t>
     </r>
     <r>
@@ -8897,6 +10551,9 @@
     <t>听起来像also</t>
   </si>
   <si>
+    <t>But right now they only need people early mornings, late nights, and weekends.</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -8948,6 +10605,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Or it can </t>
     </r>
     <r>
@@ -8975,6 +10638,30 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">On the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>bright side</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> you’ll probably be able to get some studying done between calls</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
@@ -9041,6 +10728,30 @@
   </si>
   <si>
     <r>
+      <t>At least</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> it could be</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> a start and then you can try for better hours next semester.</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
@@ -9100,6 +10811,30 @@
     </r>
   </si>
   <si>
+    <r>
+      <t>I see wh</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>y th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">e hours might be a problem. </t>
+    </r>
+  </si>
+  <si>
     <t>Don’t get me wrong though</t>
   </si>
   <si>
@@ -9153,6 +10888,52 @@
       </rPr>
       <t xml:space="preserve"> were the samples from Devil’s Hole</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t>But I guess I ca</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>n’t af</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">ford to be too </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>picky</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> if I want a job.</t>
+    </r>
+  </si>
+  <si>
+    <t>太挑剔</t>
   </si>
   <si>
     <r>
@@ -9194,7 +10975,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="36">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9399,6 +11180,13 @@
       <u/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -17089,10 +18877,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N32"/>
+  <dimension ref="A1:Z32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3:L3"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="O18" workbookViewId="0">
+      <selection activeCell="T25" sqref="T25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -17105,16 +18893,22 @@
     <col min="6" max="6" width="17.5" style="1" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="25.1296296296296" style="2" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="16.5" style="2" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="33.3240740740741" style="3" customWidth="1"/>
-    <col min="10" max="10" width="14.7685185185185" style="3" customWidth="1"/>
-    <col min="11" max="11" width="37.3703703703704" style="3" customWidth="1"/>
-    <col min="12" max="12" width="20.7777777777778" style="3" customWidth="1"/>
-    <col min="13" max="13" width="36.212962962963" style="3" customWidth="1"/>
-    <col min="14" max="14" width="16.5925925925926" style="3" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="1"/>
+    <col min="9" max="9" width="33.3240740740741" style="2" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7685185185185" style="2" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="37.3703703703704" style="2" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="20.7777777777778" style="2" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="36.212962962963" style="2" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="16.5925925925926" style="2" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="41.0462962962963" style="3" customWidth="1"/>
+    <col min="16" max="16" width="13.8518518518519" style="3" customWidth="1"/>
+    <col min="17" max="17" width="38.1666666666667" style="3" customWidth="1"/>
+    <col min="18" max="18" width="18.037037037037" style="3" customWidth="1"/>
+    <col min="19" max="19" width="35.5555555555556" style="3" customWidth="1"/>
+    <col min="20" max="20" width="12.6481481481481" style="3" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:26">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
       <c r="C1" s="5" t="s">
@@ -17131,36 +18925,68 @@
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="5" t="s">
+        <v>672</v>
+      </c>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
+    </row>
+    <row r="2" spans="1:26">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="5" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="6" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="6" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="N2" s="6"/>
-    </row>
-    <row r="3" ht="31.2" spans="1:14">
+      <c r="O2" s="5" t="s">
+        <v>679</v>
+      </c>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5" t="s">
+        <v>680</v>
+      </c>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5" t="s">
+        <v>681</v>
+      </c>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="6"/>
+    </row>
+    <row r="3" ht="31.2" spans="1:26">
       <c r="A3" s="7" t="s">
         <v>586</v>
       </c>
@@ -17187,8 +19013,24 @@
         <v>1</v>
       </c>
       <c r="N3" s="6"/>
-    </row>
-    <row r="4" ht="31.2" spans="1:14">
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5">
+        <v>1</v>
+      </c>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5">
+        <v>1</v>
+      </c>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
+    </row>
+    <row r="4" ht="31.2" spans="1:26">
       <c r="A4" s="7"/>
       <c r="B4" s="6" t="s">
         <v>590</v>
@@ -17209,22 +19051,36 @@
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
-    </row>
-    <row r="5" ht="82" customHeight="1" spans="1:14">
+      <c r="O4" s="5">
+        <v>1</v>
+      </c>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="6"/>
+    </row>
+    <row r="5" ht="82" customHeight="1" spans="1:26">
       <c r="A5" s="7"/>
       <c r="B5" s="4" t="s">
         <v>591</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="5">
@@ -17239,8 +19095,26 @@
         <v>3</v>
       </c>
       <c r="N5" s="6"/>
-    </row>
-    <row r="6" ht="46.8" spans="1:14">
+      <c r="O5" s="5">
+        <v>1</v>
+      </c>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5">
+        <v>3</v>
+      </c>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5">
+        <v>3</v>
+      </c>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
+    </row>
+    <row r="6" ht="99" customHeight="1" spans="1:26">
       <c r="A6" s="7" t="s">
         <v>602</v>
       </c>
@@ -17256,7 +19130,7 @@
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="5" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
@@ -17269,8 +19143,24 @@
         <v>1</v>
       </c>
       <c r="N6" s="6"/>
-    </row>
-    <row r="7" ht="46.8" spans="1:14">
+      <c r="O6" s="12" t="s">
+        <v>686</v>
+      </c>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5">
+        <v>1</v>
+      </c>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
+    </row>
+    <row r="7" ht="46.8" spans="1:26">
       <c r="A7" s="7"/>
       <c r="B7" s="6" t="s">
         <v>610</v>
@@ -17289,8 +19179,24 @@
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
-    </row>
-    <row r="8" ht="31.2" spans="1:14">
+      <c r="O7" s="5">
+        <v>1</v>
+      </c>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5">
+        <v>1</v>
+      </c>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+    </row>
+    <row r="8" ht="31.2" spans="1:26">
       <c r="A8" s="7" t="s">
         <v>613</v>
       </c>
@@ -17309,8 +19215,20 @@
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
-    </row>
-    <row r="9" ht="46.8" spans="1:14">
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
+    </row>
+    <row r="9" ht="46.8" spans="1:26">
       <c r="A9" s="7"/>
       <c r="B9" s="6" t="s">
         <v>616</v>
@@ -17327,8 +19245,20 @@
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
-    </row>
-    <row r="10" ht="150" customHeight="1" spans="1:14">
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="6"/>
+    </row>
+    <row r="10" ht="150" customHeight="1" spans="1:26">
       <c r="A10" s="7"/>
       <c r="B10" s="4" t="s">
         <v>617</v>
@@ -17340,17 +19270,35 @@
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="12" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="J10" s="12"/>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
       <c r="M10" s="13" t="s">
-        <v>683</v>
+        <v>688</v>
       </c>
       <c r="N10" s="6"/>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="O10" s="12" t="s">
+        <v>689</v>
+      </c>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5">
+        <v>1</v>
+      </c>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5">
+        <v>1</v>
+      </c>
+      <c r="T10" s="5"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="12"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="13"/>
+      <c r="Z10" s="6"/>
+    </row>
+    <row r="11" spans="1:26">
       <c r="A11" s="4" t="s">
         <v>623</v>
       </c>
@@ -17367,8 +19315,20 @@
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="6"/>
+    </row>
+    <row r="12" spans="1:26">
       <c r="A12" s="4" t="s">
         <v>624</v>
       </c>
@@ -17385,549 +19345,813 @@
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
-    </row>
-    <row r="13" ht="31.8" spans="3:14">
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="6"/>
+    </row>
+    <row r="13" ht="80.4" spans="3:20">
       <c r="C13" s="2" t="s">
-        <v>684</v>
+        <v>690</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>685</v>
+        <v>691</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>686</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>687</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>688</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>689</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>690</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="14" ht="96" spans="3:13">
+        <v>692</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="S13" s="14" t="s">
+        <v>700</v>
+      </c>
+      <c r="T13" s="3" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="14" ht="96" spans="3:19">
       <c r="C14" s="2" t="s">
-        <v>692</v>
+        <v>702</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>694</v>
+        <v>704</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>695</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>696</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>697</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="15" ht="63" spans="3:14">
+        <v>705</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="15" ht="79.8" spans="3:20">
       <c r="C15" s="9" t="s">
-        <v>699</v>
+        <v>713</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>700</v>
+        <v>714</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>701</v>
+        <v>715</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>702</v>
+        <v>716</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>703</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>704</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>705</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>706</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>707</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="16" ht="48" spans="3:14">
+        <v>717</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="T15" s="3" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="16" ht="48" spans="3:20">
       <c r="C16" s="2" t="s">
-        <v>709</v>
+        <v>728</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>710</v>
+        <v>729</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>711</v>
+        <v>730</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>712</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>713</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>714</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>715</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>716</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="17" ht="63.6" spans="3:14">
+        <v>731</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="R16" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="S16" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="T16" s="3" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="17" ht="63.6" spans="3:19">
       <c r="C17" s="2" t="s">
-        <v>718</v>
+        <v>742</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>719</v>
+        <v>743</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>720</v>
+        <v>744</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>721</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>722</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>723</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>724</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>725</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="18" ht="63.6" spans="3:14">
+        <v>745</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>752</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>753</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="18" ht="63.6" spans="3:19">
       <c r="C18" s="2" t="s">
-        <v>727</v>
+        <v>755</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>728</v>
+        <v>756</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>729</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>730</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>731</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>732</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>733</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>734</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="19" ht="62.4" spans="3:14">
+        <v>757</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>764</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>765</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>766</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="19" ht="62.4" spans="3:19">
       <c r="C19" s="2" t="s">
-        <v>736</v>
+        <v>768</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>737</v>
+        <v>769</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>738</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>739</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>740</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>741</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>742</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>743</v>
-      </c>
-      <c r="N19" s="3" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="20" ht="63" spans="3:13">
+        <v>770</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>777</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>778</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>779</v>
+      </c>
+      <c r="R19" s="3" t="s">
+        <v>780</v>
+      </c>
+      <c r="S19" s="3" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="20" ht="94.2" spans="3:20">
       <c r="C20" s="2" t="s">
-        <v>745</v>
+        <v>782</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>746</v>
+        <v>783</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>747</v>
+        <v>784</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>748</v>
+        <v>785</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>749</v>
+        <v>786</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>750</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>751</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>752</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>753</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>754</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="21" ht="78.6" spans="3:13">
+        <v>787</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>793</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>794</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>795</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>796</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="21" ht="78.6" spans="3:19">
       <c r="C21" s="2" t="s">
-        <v>756</v>
+        <v>799</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>757</v>
+        <v>800</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>758</v>
+        <v>801</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>759</v>
+        <v>802</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>760</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>761</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>762</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="22" ht="47.4" spans="3:13">
+        <v>803</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>808</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>809</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="22" ht="47.4" spans="3:19">
       <c r="C22" s="2" t="s">
-        <v>764</v>
+        <v>811</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>765</v>
+        <v>812</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>766</v>
+        <v>813</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>767</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>768</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>769</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>770</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="23" ht="31.8" spans="3:13">
+        <v>814</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>820</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>821</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="23" ht="31.8" spans="3:20">
       <c r="C23" s="10" t="s">
-        <v>772</v>
+        <v>823</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>773</v>
+        <v>824</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>774</v>
+        <v>825</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>775</v>
+        <v>826</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>776</v>
-      </c>
-      <c r="I23" s="14" t="s">
-        <v>777</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>778</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="24" ht="79.8" spans="3:14">
+        <v>827</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>828</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>831</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>832</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>834</v>
+      </c>
+      <c r="T23" s="3" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="24" ht="79.8" spans="3:20">
       <c r="C24" s="2" t="s">
-        <v>780</v>
+        <v>836</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>781</v>
+        <v>837</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>782</v>
+        <v>838</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>783</v>
+        <v>839</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>784</v>
+        <v>840</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>785</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>786</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>787</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>788</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>789</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="25" ht="48" spans="5:14">
+        <v>841</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>847</v>
+      </c>
+      <c r="Q24" s="14" t="s">
+        <v>848</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>849</v>
+      </c>
+      <c r="T24" s="3" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="25" ht="48" spans="5:19">
       <c r="E25" s="11" t="s">
-        <v>791</v>
+        <v>851</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>792</v>
+        <v>852</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>793</v>
-      </c>
-      <c r="I25" s="14" t="s">
-        <v>794</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>795</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>796</v>
-      </c>
-      <c r="L25" s="3" t="s">
-        <v>797</v>
-      </c>
-      <c r="M25" s="3" t="s">
-        <v>798</v>
-      </c>
-      <c r="N25" s="3" t="s">
+        <v>853</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>854</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>855</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>856</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>858</v>
+      </c>
+      <c r="N25" s="2" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="26" ht="48" spans="5:14">
+      <c r="O25" s="3" t="s">
+        <v>859</v>
+      </c>
+      <c r="Q25" s="3" t="s">
+        <v>860</v>
+      </c>
+      <c r="S25" s="3" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="26" ht="48" spans="5:16">
       <c r="E26" s="2" t="s">
-        <v>799</v>
+        <v>862</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>800</v>
+        <v>863</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>801</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>802</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>804</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>805</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>806</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="27" ht="63.6" spans="5:14">
+        <v>864</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>866</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>867</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>868</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>869</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>870</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>871</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="27" ht="63.6" spans="5:15">
       <c r="E27" s="2" t="s">
-        <v>808</v>
+        <v>873</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>809</v>
+        <v>874</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>810</v>
+        <v>875</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>811</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>812</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>813</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>814</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="28" ht="46.8" spans="5:14">
+        <v>876</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>877</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>878</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>880</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="28" ht="47.4" spans="5:15">
       <c r="E28" s="2" t="s">
-        <v>816</v>
+        <v>882</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>817</v>
-      </c>
-      <c r="M28" s="3" t="s">
-        <v>818</v>
-      </c>
-      <c r="N28" s="3" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="29" ht="32.4" spans="5:14">
+        <v>883</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>884</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>885</v>
+      </c>
+      <c r="O28" s="3" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="29" ht="32.4" spans="5:15">
       <c r="E29" s="2" t="s">
-        <v>820</v>
+        <v>887</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>821</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>822</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="30" ht="63" spans="5:7">
+        <v>888</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>889</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>890</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="30" ht="63" spans="5:15">
       <c r="E30" s="2" t="s">
-        <v>824</v>
+        <v>892</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="31" ht="63.6" spans="5:7">
+        <v>893</v>
+      </c>
+      <c r="O30" s="3" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="31" ht="63.6" spans="5:16">
       <c r="E31" s="2" t="s">
-        <v>826</v>
+        <v>895</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>827</v>
+        <v>896</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>828</v>
+        <v>897</v>
+      </c>
+      <c r="O31" s="3" t="s">
+        <v>898</v>
+      </c>
+      <c r="P31" s="3" t="s">
+        <v>899</v>
       </c>
     </row>
     <row r="32" ht="78" spans="7:7">
       <c r="G32" s="2" t="s">
-        <v>829</v>
+        <v>900</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="62">
+  <mergeCells count="119">
     <mergeCell ref="C1:N1"/>
+    <mergeCell ref="O1:Z1"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:Z2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Y3:Z3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="Y4:Z4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="Y5:Z5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="Y6:Z6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="Y7:Z7"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="K8:L8"/>
     <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="Y8:Z8"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="K9:L9"/>
     <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="Y9:Z9"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="Y10:Z10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="C11:I11"/>
+    <mergeCell ref="O11:U11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="C12:I12"/>
+    <mergeCell ref="O12:U12"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A10"/>
